--- a/help/extra_izv.xlsx
+++ b/help/extra_izv.xlsx
@@ -15,12 +15,12 @@
     <sheet name="svod" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="249">
   <si>
     <t>Количество переданных в ФБУЗ «Центр гигиены и эпидимиологии в Санкт-Петербурге» экстренных извещений Роспотребнадзора</t>
   </si>
@@ -181,9 +181,6 @@
     <t>СПб ГБУЗ "Бюро судебно-медицинской экспертизы"</t>
   </si>
   <si>
-    <t>СПБ ГБУЗ "ССМП"</t>
-  </si>
-  <si>
     <t>СПб ГКУЗ "ГЦВЛДПН"</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>СПб ГБУЗ "КДЦ №85"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Городской перинатальный центр №1"    ("ГПЦ №1")</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Городской консультативно-диагностический центр №1"</t>
   </si>
   <si>
@@ -754,9 +748,6 @@
     <t>СПб ГКУЗ "Специализированный психоневрологический дом ребенка №13 Адмиралтейского района Санкт-Петербурга"</t>
   </si>
   <si>
-    <t>СПб ГАУЗ "Хоспис (детский и взрослый)</t>
-  </si>
-  <si>
     <t>СПб ГКУЗ "Хоспис №1"</t>
   </si>
   <si>
@@ -770,6 +761,12 @@
   </si>
   <si>
     <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "ГПЦ №1"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Хоспис (детский)"</t>
   </si>
 </sst>
 </file>
@@ -807,12 +804,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -841,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1084,26 +1078,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1161,42 +1145,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2373,12 +2355,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
@@ -4334,27 +4316,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -4362,7 +4344,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -4370,7 +4352,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -4378,7 +4360,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -4386,7 +4368,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -4394,7 +4376,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4402,7 +4384,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -4410,7 +4392,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -4418,7 +4400,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -4426,7 +4408,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -4434,7 +4416,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -4442,7 +4424,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -4450,7 +4432,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4458,7 +4440,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -4466,7 +4448,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -4474,7 +4456,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -4482,7 +4464,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -4490,7 +4472,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -4498,7 +4480,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -4506,7 +4488,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -4514,7 +4496,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -4522,7 +4504,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -4530,7 +4512,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -4538,7 +4520,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
-      <c r="A25" s="21">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -4546,7 +4528,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -4554,7 +4536,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
-      <c r="A27" s="21">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
@@ -4562,7 +4544,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
-      <c r="A28" s="21">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -4570,7 +4552,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
-      <c r="A29" s="21">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -4578,7 +4560,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
-      <c r="A30" s="21">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -4586,7 +4568,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
-      <c r="A31" s="21">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -4594,7 +4576,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -4602,7 +4584,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
-      <c r="A33" s="21">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -4610,7 +4592,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
-      <c r="A34" s="21">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -4618,7 +4600,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
-      <c r="A35" s="21">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -4626,7 +4608,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
-      <c r="A36" s="21">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
@@ -4634,7 +4616,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
-      <c r="A37" s="21">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -4642,7 +4624,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75">
-      <c r="A38" s="21">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -4650,7 +4632,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75">
-      <c r="A39" s="21">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -4658,7 +4640,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75">
-      <c r="A40" s="21">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
@@ -4666,7 +4648,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75">
-      <c r="A41" s="21">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -4674,7 +4656,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75">
-      <c r="A42" s="21">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -4682,7 +4664,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75">
-      <c r="A43" s="21">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -4690,7 +4672,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75">
-      <c r="A44" s="21">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -4698,7 +4680,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75">
-      <c r="A45" s="21">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -4706,7 +4688,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75">
-      <c r="A46" s="21">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -4714,7 +4696,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75">
-      <c r="A47" s="21">
+      <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -4722,7 +4704,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75">
-      <c r="A48" s="21">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
@@ -4730,15 +4712,15 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75">
-      <c r="A49" s="21">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75">
-      <c r="A50" s="21">
+      <c r="A50" s="19">
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
@@ -4746,1563 +4728,1555 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75">
-      <c r="A51" s="21">
+      <c r="A51" s="19">
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75">
-      <c r="A52" s="21">
+    <row r="52" spans="1:2">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="19">
+        <v>52</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75">
-      <c r="A53" s="21">
-        <v>52</v>
-      </c>
-      <c r="B53" s="22" t="s">
+    <row r="54" spans="1:2" ht="15.75">
+      <c r="A54" s="19">
+        <v>53</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75">
-      <c r="A54" s="21">
-        <v>53</v>
-      </c>
-      <c r="B54" s="24" t="s">
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="19">
+        <v>54</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75">
-      <c r="A55" s="21">
-        <v>54</v>
-      </c>
-      <c r="B55" s="24" t="s">
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="19">
+        <v>55</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75">
-      <c r="A56" s="21">
-        <v>55</v>
-      </c>
-      <c r="B56" s="24" t="s">
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="19">
+        <v>56</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75">
-      <c r="A57" s="21">
-        <v>56</v>
-      </c>
-      <c r="B57" s="24" t="s">
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="19">
+        <v>57</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75">
-      <c r="A58" s="21">
-        <v>57</v>
-      </c>
-      <c r="B58" s="24" t="s">
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="19">
+        <v>58</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75">
-      <c r="A59" s="21">
-        <v>58</v>
-      </c>
-      <c r="B59" s="24" t="s">
+    <row r="60" spans="1:2" ht="15.75">
+      <c r="A60" s="19">
+        <v>59</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75">
-      <c r="A60" s="21">
-        <v>59</v>
-      </c>
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:2" ht="15.75">
+      <c r="A61" s="19">
+        <v>60</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75">
-      <c r="A61" s="21">
-        <v>60</v>
-      </c>
-      <c r="B61" s="24" t="s">
+    <row r="62" spans="1:2" ht="15.75">
+      <c r="A62" s="19">
+        <v>61</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75">
-      <c r="A62" s="21">
-        <v>61</v>
-      </c>
-      <c r="B62" s="24" t="s">
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75">
-      <c r="A63" s="21">
-        <v>62</v>
-      </c>
-      <c r="B63" s="24" t="s">
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75">
-      <c r="A64" s="21">
-        <v>63</v>
-      </c>
-      <c r="B64" s="24" t="s">
+    <row r="65" spans="1:2" ht="15.75">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75">
-      <c r="A65" s="21">
-        <v>64</v>
-      </c>
-      <c r="B65" s="24" t="s">
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75">
-      <c r="A66" s="21">
-        <v>65</v>
-      </c>
-      <c r="B66" s="24" t="s">
+    <row r="67" spans="1:2" ht="15.75">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75">
-      <c r="A67" s="21">
-        <v>66</v>
-      </c>
-      <c r="B67" s="24" t="s">
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75">
-      <c r="A68" s="21">
-        <v>67</v>
-      </c>
-      <c r="B68" s="24" t="s">
+    <row r="69" spans="1:2" ht="15.75">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75">
-      <c r="A69" s="21">
-        <v>68</v>
-      </c>
-      <c r="B69" s="24" t="s">
+    <row r="70" spans="1:2" ht="15.75">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75">
-      <c r="A70" s="21">
-        <v>69</v>
-      </c>
-      <c r="B70" s="24" t="s">
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75">
-      <c r="A71" s="21">
-        <v>70</v>
-      </c>
-      <c r="B71" s="24" t="s">
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="19">
+        <v>71</v>
+      </c>
+      <c r="B72" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75">
-      <c r="A72" s="21">
-        <v>71</v>
-      </c>
-      <c r="B72" s="24" t="s">
+    <row r="73" spans="1:2" ht="15.75">
+      <c r="A73" s="19">
+        <v>72</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75">
-      <c r="A73" s="21">
-        <v>72</v>
-      </c>
-      <c r="B73" s="24" t="s">
+    <row r="74" spans="1:2" ht="15.75">
+      <c r="A74" s="19">
+        <v>73</v>
+      </c>
+      <c r="B74" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75">
-      <c r="A74" s="21">
-        <v>73</v>
-      </c>
-      <c r="B74" s="24" t="s">
+    <row r="75" spans="1:2" ht="15.75">
+      <c r="A75" s="19">
+        <v>74</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75">
-      <c r="A75" s="21">
-        <v>74</v>
-      </c>
-      <c r="B75" s="24" t="s">
+    <row r="76" spans="1:2" ht="15.75">
+      <c r="A76" s="19">
+        <v>75</v>
+      </c>
+      <c r="B76" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75">
-      <c r="A76" s="21">
-        <v>75</v>
-      </c>
-      <c r="B76" s="24" t="s">
+    <row r="77" spans="1:2" ht="15.75">
+      <c r="A77" s="19">
+        <v>76</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75">
-      <c r="A77" s="21">
-        <v>76</v>
-      </c>
-      <c r="B77" s="24" t="s">
+    <row r="78" spans="1:2" ht="15.75">
+      <c r="A78" s="19">
+        <v>77</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75">
-      <c r="A78" s="21">
-        <v>77</v>
-      </c>
-      <c r="B78" s="24" t="s">
+    <row r="79" spans="1:2" ht="15.75">
+      <c r="A79" s="19">
+        <v>78</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75">
-      <c r="A79" s="21">
-        <v>78</v>
-      </c>
-      <c r="B79" s="24" t="s">
+    <row r="80" spans="1:2" ht="15.75">
+      <c r="A80" s="19">
+        <v>79</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75">
-      <c r="A80" s="21">
-        <v>79</v>
-      </c>
-      <c r="B80" s="24" t="s">
+    <row r="81" spans="1:2" ht="15.75">
+      <c r="A81" s="19">
+        <v>80</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75">
-      <c r="A81" s="21">
-        <v>80</v>
-      </c>
-      <c r="B81" s="24" t="s">
+    <row r="82" spans="1:2" ht="15.75">
+      <c r="A82" s="19">
+        <v>81</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75">
-      <c r="A82" s="21">
-        <v>81</v>
-      </c>
-      <c r="B82" s="24" t="s">
+    <row r="83" spans="1:2" ht="15.75">
+      <c r="A83" s="19">
+        <v>82</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75">
-      <c r="A83" s="21">
-        <v>82</v>
-      </c>
-      <c r="B83" s="24" t="s">
+    <row r="84" spans="1:2" ht="15.75">
+      <c r="A84" s="19">
+        <v>83</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75">
-      <c r="A84" s="21">
-        <v>83</v>
-      </c>
-      <c r="B84" s="24" t="s">
+    <row r="85" spans="1:2" ht="15.75">
+      <c r="A85" s="19">
+        <v>84</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75">
-      <c r="A85" s="21">
-        <v>84</v>
-      </c>
-      <c r="B85" s="24" t="s">
+    <row r="86" spans="1:2" ht="15.75">
+      <c r="A86" s="19">
+        <v>85</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75">
-      <c r="A86" s="21">
-        <v>85</v>
-      </c>
-      <c r="B86" s="24" t="s">
+    <row r="87" spans="1:2" ht="15.75">
+      <c r="A87" s="19">
+        <v>86</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75">
-      <c r="A87" s="21">
-        <v>86</v>
-      </c>
-      <c r="B87" s="24" t="s">
+    <row r="88" spans="1:2" ht="15.75">
+      <c r="A88" s="19">
+        <v>87</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75">
-      <c r="A88" s="21">
-        <v>87</v>
-      </c>
-      <c r="B88" s="24" t="s">
+    <row r="89" spans="1:2" ht="15.75">
+      <c r="A89" s="19">
+        <v>88</v>
+      </c>
+      <c r="B89" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75">
-      <c r="A89" s="21">
-        <v>88</v>
-      </c>
-      <c r="B89" s="24" t="s">
+    <row r="90" spans="1:2" ht="15.75">
+      <c r="A90" s="19">
+        <v>89</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75">
-      <c r="A90" s="21">
-        <v>89</v>
-      </c>
-      <c r="B90" s="24" t="s">
+    <row r="91" spans="1:2" ht="15.75">
+      <c r="A91" s="19">
+        <v>90</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75">
-      <c r="A91" s="21">
-        <v>90</v>
-      </c>
-      <c r="B91" s="24" t="s">
+    <row r="92" spans="1:2" ht="15.75">
+      <c r="A92" s="19">
+        <v>91</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75">
-      <c r="A92" s="21">
-        <v>91</v>
-      </c>
-      <c r="B92" s="24" t="s">
+    <row r="93" spans="1:2" ht="15.75">
+      <c r="A93" s="19">
+        <v>92</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75">
-      <c r="A93" s="21">
-        <v>92</v>
-      </c>
-      <c r="B93" s="24" t="s">
+    <row r="94" spans="1:2" ht="15.75">
+      <c r="A94" s="19">
+        <v>93</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75">
-      <c r="A94" s="21">
-        <v>93</v>
-      </c>
-      <c r="B94" s="24" t="s">
+    <row r="95" spans="1:2" ht="15.75">
+      <c r="A95" s="19">
+        <v>94</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75">
-      <c r="A95" s="21">
-        <v>94</v>
-      </c>
-      <c r="B95" s="24" t="s">
+    <row r="96" spans="1:2" ht="15.75">
+      <c r="A96" s="19">
+        <v>95</v>
+      </c>
+      <c r="B96" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75">
-      <c r="A96" s="21">
-        <v>95</v>
-      </c>
-      <c r="B96" s="24" t="s">
+    <row r="97" spans="1:2" ht="15.75">
+      <c r="A97" s="19">
+        <v>96</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75">
-      <c r="A97" s="21">
-        <v>96</v>
-      </c>
-      <c r="B97" s="24" t="s">
+    <row r="98" spans="1:2" ht="15.75">
+      <c r="A98" s="19">
+        <v>97</v>
+      </c>
+      <c r="B98" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75">
-      <c r="A98" s="21">
-        <v>97</v>
-      </c>
-      <c r="B98" s="24" t="s">
+    <row r="99" spans="1:2" ht="15.75">
+      <c r="A99" s="19">
+        <v>98</v>
+      </c>
+      <c r="B99" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75">
-      <c r="A99" s="21">
-        <v>98</v>
-      </c>
-      <c r="B99" s="24" t="s">
+    <row r="100" spans="1:2" ht="15.75">
+      <c r="A100" s="19">
+        <v>99</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75">
-      <c r="A100" s="21">
-        <v>99</v>
-      </c>
-      <c r="B100" s="24" t="s">
+    <row r="101" spans="1:2" ht="15.75">
+      <c r="A101" s="19">
+        <v>100</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75">
-      <c r="A101" s="21">
-        <v>100</v>
-      </c>
-      <c r="B101" s="24" t="s">
+    <row r="102" spans="1:2" ht="15.75">
+      <c r="A102" s="19">
+        <v>101</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75">
-      <c r="A102" s="21">
-        <v>101</v>
-      </c>
-      <c r="B102" s="24" t="s">
+    <row r="103" spans="1:2" ht="15.75">
+      <c r="A103" s="19">
+        <v>102</v>
+      </c>
+      <c r="B103" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75">
-      <c r="A103" s="21">
-        <v>102</v>
-      </c>
-      <c r="B103" s="24" t="s">
+    <row r="104" spans="1:2" ht="15.75">
+      <c r="A104" s="19">
+        <v>103</v>
+      </c>
+      <c r="B104" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75">
-      <c r="A104" s="21">
-        <v>103</v>
-      </c>
-      <c r="B104" s="24" t="s">
+    <row r="105" spans="1:2" ht="15.75">
+      <c r="A105" s="19">
+        <v>104</v>
+      </c>
+      <c r="B105" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75">
-      <c r="A105" s="21">
-        <v>104</v>
-      </c>
-      <c r="B105" s="24" t="s">
+    <row r="106" spans="1:2" ht="15.75">
+      <c r="A106" s="19">
+        <v>105</v>
+      </c>
+      <c r="B106" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75">
-      <c r="A106" s="21">
-        <v>105</v>
-      </c>
-      <c r="B106" s="24" t="s">
+    <row r="107" spans="1:2" ht="15.75">
+      <c r="A107" s="19">
+        <v>106</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75">
-      <c r="A107" s="21">
-        <v>106</v>
-      </c>
-      <c r="B107" s="24" t="s">
+    <row r="108" spans="1:2" ht="15.75">
+      <c r="A108" s="19">
+        <v>107</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75">
-      <c r="A108" s="21">
-        <v>107</v>
-      </c>
-      <c r="B108" s="24" t="s">
+    <row r="109" spans="1:2" ht="15.75">
+      <c r="A109" s="19">
+        <v>108</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75">
-      <c r="A109" s="21">
-        <v>108</v>
-      </c>
-      <c r="B109" s="24" t="s">
+    <row r="110" spans="1:2" ht="15.75">
+      <c r="A110" s="19">
+        <v>109</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75">
-      <c r="A110" s="21">
-        <v>109</v>
-      </c>
-      <c r="B110" s="24" t="s">
+    <row r="111" spans="1:2" ht="15.75">
+      <c r="A111" s="19">
+        <v>110</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75">
-      <c r="A111" s="21">
-        <v>110</v>
-      </c>
-      <c r="B111" s="24" t="s">
+    <row r="112" spans="1:2" ht="15.75">
+      <c r="A112" s="19">
+        <v>111</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75">
-      <c r="A112" s="21">
-        <v>111</v>
-      </c>
-      <c r="B112" s="24" t="s">
+    <row r="113" spans="1:2" ht="15.75">
+      <c r="A113" s="19">
+        <v>112</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75">
-      <c r="A113" s="21">
-        <v>112</v>
-      </c>
-      <c r="B113" s="24" t="s">
+    <row r="114" spans="1:2" ht="15.75">
+      <c r="A114" s="19">
+        <v>113</v>
+      </c>
+      <c r="B114" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75">
-      <c r="A114" s="21">
-        <v>113</v>
-      </c>
-      <c r="B114" s="24" t="s">
+    <row r="115" spans="1:2" ht="15.75">
+      <c r="A115" s="19">
+        <v>114</v>
+      </c>
+      <c r="B115" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75">
-      <c r="A115" s="21">
-        <v>114</v>
-      </c>
-      <c r="B115" s="24" t="s">
+    <row r="116" spans="1:2" ht="15.75">
+      <c r="A116" s="19">
+        <v>115</v>
+      </c>
+      <c r="B116" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75">
-      <c r="A116" s="21">
-        <v>115</v>
-      </c>
-      <c r="B116" s="24" t="s">
+    <row r="117" spans="1:2" ht="15.75">
+      <c r="A117" s="19">
+        <v>116</v>
+      </c>
+      <c r="B117" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75">
-      <c r="A117" s="21">
-        <v>116</v>
-      </c>
-      <c r="B117" s="24" t="s">
+    <row r="118" spans="1:2" ht="15.75">
+      <c r="A118" s="19">
+        <v>117</v>
+      </c>
+      <c r="B118" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75">
-      <c r="A118" s="21">
-        <v>117</v>
-      </c>
-      <c r="B118" s="24" t="s">
+    <row r="119" spans="1:2" ht="15.75">
+      <c r="A119" s="19">
+        <v>118</v>
+      </c>
+      <c r="B119" s="24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75">
-      <c r="A119" s="21">
-        <v>118</v>
-      </c>
-      <c r="B119" s="24" t="s">
+    <row r="120" spans="1:2" ht="15.75">
+      <c r="A120" s="19">
+        <v>119</v>
+      </c>
+      <c r="B120" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75">
-      <c r="A120" s="21">
-        <v>119</v>
-      </c>
-      <c r="B120" s="24" t="s">
+    <row r="121" spans="1:2" ht="15.75">
+      <c r="A121" s="19">
+        <v>120</v>
+      </c>
+      <c r="B121" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75">
-      <c r="A121" s="21">
-        <v>120</v>
-      </c>
-      <c r="B121" s="24" t="s">
+    <row r="122" spans="1:2" ht="15.75">
+      <c r="A122" s="19">
+        <v>121</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75">
-      <c r="A122" s="21">
-        <v>121</v>
-      </c>
-      <c r="B122" s="25" t="s">
+    <row r="123" spans="1:2" ht="15.75">
+      <c r="A123" s="19">
+        <v>122</v>
+      </c>
+      <c r="B123" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75">
-      <c r="A123" s="21">
-        <v>122</v>
-      </c>
-      <c r="B123" s="24" t="s">
+    <row r="124" spans="1:2" ht="15.75">
+      <c r="A124" s="19">
+        <v>123</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75">
-      <c r="A124" s="21">
-        <v>123</v>
-      </c>
-      <c r="B124" s="24" t="s">
+    <row r="125" spans="1:2" ht="15.75">
+      <c r="A125" s="19">
+        <v>124</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75">
-      <c r="A125" s="21">
-        <v>124</v>
-      </c>
-      <c r="B125" s="24" t="s">
+    <row r="126" spans="1:2" ht="15.75">
+      <c r="A126" s="19">
+        <v>125</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75">
-      <c r="A126" s="21">
-        <v>125</v>
-      </c>
-      <c r="B126" s="24" t="s">
+    <row r="127" spans="1:2" ht="15.75">
+      <c r="A127" s="19">
+        <v>126</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75">
-      <c r="A127" s="21">
-        <v>126</v>
-      </c>
-      <c r="B127" s="24" t="s">
+    <row r="128" spans="1:2" ht="15.75">
+      <c r="A128" s="19">
+        <v>127</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75">
-      <c r="A128" s="21">
-        <v>127</v>
-      </c>
-      <c r="B128" s="24" t="s">
+    <row r="129" spans="1:2" ht="15.75">
+      <c r="A129" s="19">
+        <v>128</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75">
-      <c r="A129" s="21">
-        <v>128</v>
-      </c>
-      <c r="B129" s="24" t="s">
+    <row r="130" spans="1:2" ht="15.75">
+      <c r="A130" s="19">
+        <v>129</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75">
-      <c r="A130" s="21">
-        <v>129</v>
-      </c>
-      <c r="B130" s="24" t="s">
+    <row r="131" spans="1:2" ht="31.5">
+      <c r="A131" s="19">
+        <v>130</v>
+      </c>
+      <c r="B131" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75">
-      <c r="A131" s="21">
-        <v>130</v>
-      </c>
-      <c r="B131" s="24" t="s">
+    <row r="132" spans="1:2" ht="15.75">
+      <c r="A132" s="19">
+        <v>131</v>
+      </c>
+      <c r="B132" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="31.5">
-      <c r="A132" s="21">
-        <v>131</v>
-      </c>
-      <c r="B132" s="28" t="s">
+    <row r="133" spans="1:2" ht="15.75">
+      <c r="A133" s="19">
+        <v>132</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75">
-      <c r="A133" s="21">
-        <v>132</v>
-      </c>
-      <c r="B133" s="24" t="s">
+    <row r="134" spans="1:2" ht="15.75">
+      <c r="A134" s="19">
+        <v>133</v>
+      </c>
+      <c r="B134" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75">
-      <c r="A134" s="21">
-        <v>133</v>
-      </c>
-      <c r="B134" s="24" t="s">
+    <row r="135" spans="1:2" ht="15.75">
+      <c r="A135" s="19">
+        <v>134</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75">
-      <c r="A135" s="21">
-        <v>134</v>
-      </c>
-      <c r="B135" s="24" t="s">
+    <row r="136" spans="1:2" ht="15.75">
+      <c r="A136" s="19">
+        <v>135</v>
+      </c>
+      <c r="B136" s="24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75">
-      <c r="A136" s="21">
-        <v>135</v>
-      </c>
-      <c r="B136" s="24" t="s">
+    <row r="137" spans="1:2" ht="15.75">
+      <c r="A137" s="19">
+        <v>136</v>
+      </c>
+      <c r="B137" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75">
-      <c r="A137" s="21">
-        <v>136</v>
-      </c>
-      <c r="B137" s="24" t="s">
+    <row r="138" spans="1:2" ht="15.75">
+      <c r="A138" s="19">
+        <v>137</v>
+      </c>
+      <c r="B138" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75">
-      <c r="A138" s="21">
-        <v>137</v>
-      </c>
-      <c r="B138" s="24" t="s">
+    <row r="139" spans="1:2" ht="15.75">
+      <c r="A139" s="19">
+        <v>138</v>
+      </c>
+      <c r="B139" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.75">
-      <c r="A139" s="21">
-        <v>138</v>
-      </c>
-      <c r="B139" s="24" t="s">
+    <row r="140" spans="1:2" ht="15.75">
+      <c r="A140" s="19">
+        <v>139</v>
+      </c>
+      <c r="B140" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75">
-      <c r="A140" s="21">
-        <v>139</v>
-      </c>
-      <c r="B140" s="24" t="s">
+    <row r="141" spans="1:2" ht="15.75">
+      <c r="A141" s="19">
+        <v>140</v>
+      </c>
+      <c r="B141" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75">
-      <c r="A141" s="21">
-        <v>140</v>
-      </c>
-      <c r="B141" s="24" t="s">
+    <row r="142" spans="1:2" ht="15.75">
+      <c r="A142" s="19">
+        <v>141</v>
+      </c>
+      <c r="B142" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75">
-      <c r="A142" s="21">
-        <v>141</v>
-      </c>
-      <c r="B142" s="24" t="s">
+    <row r="143" spans="1:2" ht="15.75">
+      <c r="A143" s="19">
+        <v>142</v>
+      </c>
+      <c r="B143" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75">
-      <c r="A143" s="21">
-        <v>142</v>
-      </c>
-      <c r="B143" s="24" t="s">
+    <row r="144" spans="1:2" ht="15.75">
+      <c r="A144" s="19">
+        <v>143</v>
+      </c>
+      <c r="B144" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75">
-      <c r="A144" s="21">
-        <v>143</v>
-      </c>
-      <c r="B144" s="24" t="s">
+    <row r="145" spans="1:2" ht="15.75">
+      <c r="A145" s="19">
+        <v>144</v>
+      </c>
+      <c r="B145" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.75">
-      <c r="A145" s="21">
-        <v>144</v>
-      </c>
-      <c r="B145" s="24" t="s">
+    <row r="146" spans="1:2" ht="15.75">
+      <c r="A146" s="19">
+        <v>145</v>
+      </c>
+      <c r="B146" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75">
-      <c r="A146" s="21">
-        <v>145</v>
-      </c>
-      <c r="B146" s="24" t="s">
+    <row r="147" spans="1:2" ht="15.75">
+      <c r="A147" s="19">
+        <v>146</v>
+      </c>
+      <c r="B147" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75">
-      <c r="A147" s="21">
-        <v>146</v>
-      </c>
-      <c r="B147" s="24" t="s">
+    <row r="148" spans="1:2" ht="15.75">
+      <c r="A148" s="19">
+        <v>147</v>
+      </c>
+      <c r="B148" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75">
-      <c r="A148" s="21">
-        <v>147</v>
-      </c>
-      <c r="B148" s="24" t="s">
+    <row r="149" spans="1:2" ht="15.75">
+      <c r="A149" s="19">
+        <v>148</v>
+      </c>
+      <c r="B149" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75">
-      <c r="A149" s="21">
-        <v>148</v>
-      </c>
-      <c r="B149" s="24" t="s">
+    <row r="150" spans="1:2" ht="15.75">
+      <c r="A150" s="19">
+        <v>149</v>
+      </c>
+      <c r="B150" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75">
-      <c r="A150" s="21">
-        <v>149</v>
-      </c>
-      <c r="B150" s="24" t="s">
+    <row r="151" spans="1:2" ht="15.75">
+      <c r="A151" s="19">
+        <v>150</v>
+      </c>
+      <c r="B151" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75">
-      <c r="A151" s="21">
-        <v>150</v>
-      </c>
-      <c r="B151" s="24" t="s">
+    <row r="152" spans="1:2" ht="15.75">
+      <c r="A152" s="19">
+        <v>151</v>
+      </c>
+      <c r="B152" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75">
-      <c r="A152" s="21">
-        <v>151</v>
-      </c>
-      <c r="B152" s="24" t="s">
+    <row r="153" spans="1:2" ht="15.75">
+      <c r="A153" s="19">
+        <v>152</v>
+      </c>
+      <c r="B153" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75">
-      <c r="A153" s="21">
-        <v>152</v>
-      </c>
-      <c r="B153" s="24" t="s">
+    <row r="154" spans="1:2" ht="15.75">
+      <c r="A154" s="19">
+        <v>153</v>
+      </c>
+      <c r="B154" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75">
-      <c r="A154" s="21">
-        <v>153</v>
-      </c>
-      <c r="B154" s="24" t="s">
+    <row r="155" spans="1:2" ht="15.75">
+      <c r="A155" s="19">
+        <v>154</v>
+      </c>
+      <c r="B155" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75">
-      <c r="A155" s="21">
-        <v>154</v>
-      </c>
-      <c r="B155" s="24" t="s">
+    <row r="156" spans="1:2" ht="15.75">
+      <c r="A156" s="19">
+        <v>155</v>
+      </c>
+      <c r="B156" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75">
-      <c r="A156" s="21">
-        <v>155</v>
-      </c>
-      <c r="B156" s="24" t="s">
+    <row r="157" spans="1:2" ht="15.75">
+      <c r="A157" s="19">
+        <v>156</v>
+      </c>
+      <c r="B157" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75">
-      <c r="A157" s="21">
-        <v>156</v>
-      </c>
-      <c r="B157" s="24" t="s">
+    <row r="158" spans="1:2" ht="15.75">
+      <c r="A158" s="19">
+        <v>157</v>
+      </c>
+      <c r="B158" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75">
-      <c r="A158" s="21">
-        <v>157</v>
-      </c>
-      <c r="B158" s="24" t="s">
+    <row r="159" spans="1:2" ht="15.75">
+      <c r="A159" s="19">
+        <v>158</v>
+      </c>
+      <c r="B159" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75">
-      <c r="A159" s="21">
-        <v>158</v>
-      </c>
-      <c r="B159" s="24" t="s">
+    <row r="160" spans="1:2" ht="15.75">
+      <c r="A160" s="19">
+        <v>159</v>
+      </c>
+      <c r="B160" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75">
-      <c r="A160" s="21">
-        <v>159</v>
-      </c>
-      <c r="B160" s="24" t="s">
+    <row r="161" spans="1:2" ht="15.75">
+      <c r="A161" s="19">
+        <v>160</v>
+      </c>
+      <c r="B161" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75">
-      <c r="A161" s="21">
-        <v>160</v>
-      </c>
-      <c r="B161" s="24" t="s">
+    <row r="162" spans="1:2" ht="15.75">
+      <c r="A162" s="19">
+        <v>161</v>
+      </c>
+      <c r="B162" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75">
-      <c r="A162" s="21">
-        <v>161</v>
-      </c>
-      <c r="B162" s="24" t="s">
+    <row r="163" spans="1:2" ht="15.75">
+      <c r="A163" s="19">
+        <v>162</v>
+      </c>
+      <c r="B163" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75">
-      <c r="A163" s="21">
-        <v>162</v>
-      </c>
-      <c r="B163" s="24" t="s">
+    <row r="164" spans="1:2" ht="15.75">
+      <c r="A164" s="19">
+        <v>163</v>
+      </c>
+      <c r="B164" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75">
-      <c r="A164" s="21">
-        <v>163</v>
-      </c>
-      <c r="B164" s="24" t="s">
+    <row r="165" spans="1:2" ht="15.75">
+      <c r="A165" s="19">
+        <v>164</v>
+      </c>
+      <c r="B165" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75">
-      <c r="A165" s="21">
-        <v>164</v>
-      </c>
-      <c r="B165" s="24" t="s">
+    <row r="166" spans="1:2" ht="15.75">
+      <c r="A166" s="19">
+        <v>165</v>
+      </c>
+      <c r="B166" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75">
-      <c r="A166" s="21">
-        <v>165</v>
-      </c>
-      <c r="B166" s="24" t="s">
+    <row r="167" spans="1:2" ht="15.75">
+      <c r="A167" s="19">
+        <v>166</v>
+      </c>
+      <c r="B167" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75">
-      <c r="A167" s="21">
-        <v>166</v>
-      </c>
-      <c r="B167" s="24" t="s">
+    <row r="168" spans="1:2" ht="15.75">
+      <c r="A168" s="19">
+        <v>167</v>
+      </c>
+      <c r="B168" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75">
-      <c r="A168" s="21">
-        <v>167</v>
-      </c>
-      <c r="B168" s="24" t="s">
+    <row r="169" spans="1:2" ht="15.75">
+      <c r="A169" s="19">
+        <v>168</v>
+      </c>
+      <c r="B169" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75">
-      <c r="A169" s="21">
-        <v>168</v>
-      </c>
-      <c r="B169" s="24" t="s">
+    <row r="170" spans="1:2" ht="15.75">
+      <c r="A170" s="19">
+        <v>169</v>
+      </c>
+      <c r="B170" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75">
-      <c r="A170" s="21">
-        <v>169</v>
-      </c>
-      <c r="B170" s="24" t="s">
+    <row r="171" spans="1:2" ht="15.75">
+      <c r="A171" s="19">
+        <v>170</v>
+      </c>
+      <c r="B171" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75">
-      <c r="A171" s="21">
-        <v>170</v>
-      </c>
-      <c r="B171" s="24" t="s">
+    <row r="172" spans="1:2" ht="15.75">
+      <c r="A172" s="19">
+        <v>171</v>
+      </c>
+      <c r="B172" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75">
-      <c r="A172" s="21">
-        <v>171</v>
-      </c>
-      <c r="B172" s="24" t="s">
+    <row r="173" spans="1:2" ht="15.75">
+      <c r="A173" s="19">
+        <v>172</v>
+      </c>
+      <c r="B173" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.75">
-      <c r="A173" s="21">
-        <v>172</v>
-      </c>
-      <c r="B173" s="24" t="s">
+    <row r="174" spans="1:2" ht="15.75">
+      <c r="A174" s="19">
+        <v>173</v>
+      </c>
+      <c r="B174" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75">
-      <c r="A174" s="21">
-        <v>173</v>
-      </c>
-      <c r="B174" s="24" t="s">
+    <row r="175" spans="1:2" ht="15.75">
+      <c r="A175" s="19">
+        <v>174</v>
+      </c>
+      <c r="B175" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75">
-      <c r="A175" s="21">
-        <v>174</v>
-      </c>
-      <c r="B175" s="24" t="s">
+    <row r="176" spans="1:2" ht="15.75">
+      <c r="A176" s="19">
+        <v>175</v>
+      </c>
+      <c r="B176" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75">
-      <c r="A176" s="21">
-        <v>175</v>
-      </c>
-      <c r="B176" s="24" t="s">
+    <row r="177" spans="1:2" ht="15.75">
+      <c r="A177" s="19">
+        <v>176</v>
+      </c>
+      <c r="B177" s="24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75">
-      <c r="A177" s="21">
-        <v>176</v>
-      </c>
-      <c r="B177" s="24" t="s">
+    <row r="178" spans="1:2" ht="15.75">
+      <c r="A178" s="19">
+        <v>177</v>
+      </c>
+      <c r="B178" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75">
-      <c r="A178" s="21">
-        <v>177</v>
-      </c>
-      <c r="B178" s="24" t="s">
+    <row r="179" spans="1:2" ht="15.75">
+      <c r="A179" s="19">
+        <v>178</v>
+      </c>
+      <c r="B179" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75">
-      <c r="A179" s="21">
-        <v>178</v>
-      </c>
-      <c r="B179" s="24" t="s">
+    <row r="180" spans="1:2" ht="15.75">
+      <c r="A180" s="19">
+        <v>179</v>
+      </c>
+      <c r="B180" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75">
-      <c r="A180" s="21">
-        <v>179</v>
-      </c>
-      <c r="B180" s="24" t="s">
+    <row r="181" spans="1:2" ht="15.75">
+      <c r="A181" s="19">
+        <v>180</v>
+      </c>
+      <c r="B181" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75">
-      <c r="A181" s="21">
-        <v>180</v>
-      </c>
-      <c r="B181" s="24" t="s">
+    <row r="182" spans="1:2" ht="15.75">
+      <c r="A182" s="19">
+        <v>181</v>
+      </c>
+      <c r="B182" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75">
-      <c r="A182" s="21">
-        <v>181</v>
-      </c>
-      <c r="B182" s="24" t="s">
+    <row r="183" spans="1:2" ht="15.75">
+      <c r="A183" s="19">
+        <v>182</v>
+      </c>
+      <c r="B183" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75">
-      <c r="A183" s="21">
-        <v>182</v>
-      </c>
-      <c r="B183" s="24" t="s">
+    <row r="184" spans="1:2" ht="15.75">
+      <c r="A184" s="19">
+        <v>183</v>
+      </c>
+      <c r="B184" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75">
-      <c r="A184" s="21">
-        <v>183</v>
-      </c>
-      <c r="B184" s="24" t="s">
+    <row r="185" spans="1:2" ht="15.75">
+      <c r="A185" s="19">
+        <v>184</v>
+      </c>
+      <c r="B185" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75">
-      <c r="A185" s="21">
-        <v>184</v>
-      </c>
-      <c r="B185" s="24" t="s">
+    <row r="186" spans="1:2" ht="15.75">
+      <c r="A186" s="19">
+        <v>185</v>
+      </c>
+      <c r="B186" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75">
-      <c r="A186" s="21">
-        <v>185</v>
-      </c>
-      <c r="B186" s="24" t="s">
+    <row r="187" spans="1:2" ht="15.75">
+      <c r="A187" s="19">
+        <v>186</v>
+      </c>
+      <c r="B187" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75">
-      <c r="A187" s="21">
-        <v>186</v>
-      </c>
-      <c r="B187" s="24" t="s">
+    <row r="188" spans="1:2" ht="15.75">
+      <c r="A188" s="19">
+        <v>187</v>
+      </c>
+      <c r="B188" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75">
-      <c r="A188" s="21">
-        <v>187</v>
-      </c>
-      <c r="B188" s="24" t="s">
+    <row r="189" spans="1:2" ht="15.75">
+      <c r="A189" s="19">
+        <v>188</v>
+      </c>
+      <c r="B189" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75">
-      <c r="A189" s="21">
-        <v>188</v>
-      </c>
-      <c r="B189" s="24" t="s">
+    <row r="190" spans="1:2" ht="15.75">
+      <c r="A190" s="19">
+        <v>189</v>
+      </c>
+      <c r="B190" s="24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75">
-      <c r="A190" s="21">
-        <v>189</v>
-      </c>
-      <c r="B190" s="24" t="s">
+    <row r="191" spans="1:2" ht="15.75">
+      <c r="A191" s="19">
+        <v>190</v>
+      </c>
+      <c r="B191" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75">
-      <c r="A191" s="21">
-        <v>190</v>
-      </c>
-      <c r="B191" s="24" t="s">
+    <row r="192" spans="1:2" ht="15.75">
+      <c r="A192" s="19">
+        <v>191</v>
+      </c>
+      <c r="B192" s="24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75">
-      <c r="A192" s="21">
-        <v>191</v>
-      </c>
-      <c r="B192" s="24" t="s">
+    <row r="193" spans="1:2" ht="15.75">
+      <c r="A193" s="19">
+        <v>192</v>
+      </c>
+      <c r="B193" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75">
-      <c r="A193" s="21">
-        <v>192</v>
-      </c>
-      <c r="B193" s="24" t="s">
+    <row r="194" spans="1:2" ht="15.75">
+      <c r="A194" s="19">
+        <v>193</v>
+      </c>
+      <c r="B194" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75">
-      <c r="A194" s="21">
-        <v>193</v>
-      </c>
-      <c r="B194" s="24" t="s">
+    <row r="195" spans="1:2" ht="15.75">
+      <c r="A195" s="19">
+        <v>194</v>
+      </c>
+      <c r="B195" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75">
-      <c r="A195" s="21">
-        <v>194</v>
-      </c>
-      <c r="B195" s="24" t="s">
+    <row r="196" spans="1:2" ht="15.75">
+      <c r="A196" s="19">
+        <v>195</v>
+      </c>
+      <c r="B196" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75">
-      <c r="A196" s="21">
-        <v>195</v>
-      </c>
-      <c r="B196" s="24" t="s">
+    <row r="197" spans="1:2" ht="15.75">
+      <c r="A197" s="19">
+        <v>196</v>
+      </c>
+      <c r="B197" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75">
-      <c r="A197" s="21">
-        <v>196</v>
-      </c>
-      <c r="B197" s="24" t="s">
+    <row r="198" spans="1:2" ht="15.75">
+      <c r="A198" s="19">
+        <v>197</v>
+      </c>
+      <c r="B198" s="24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.75">
-      <c r="A198" s="21">
-        <v>197</v>
-      </c>
-      <c r="B198" s="24" t="s">
+    <row r="199" spans="1:2" ht="15.75">
+      <c r="A199" s="19">
+        <v>198</v>
+      </c>
+      <c r="B199" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.75">
-      <c r="A199" s="21">
-        <v>198</v>
-      </c>
-      <c r="B199" s="24" t="s">
+    <row r="200" spans="1:2" ht="15.75">
+      <c r="A200" s="19">
+        <v>199</v>
+      </c>
+      <c r="B200" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75">
-      <c r="A200" s="21">
-        <v>199</v>
-      </c>
-      <c r="B200" s="24" t="s">
+    <row r="201" spans="1:2" ht="15.75">
+      <c r="A201" s="19">
+        <v>200</v>
+      </c>
+      <c r="B201" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75">
-      <c r="A201" s="21">
-        <v>200</v>
-      </c>
-      <c r="B201" s="24" t="s">
+    <row r="202" spans="1:2" ht="15.75">
+      <c r="A202" s="19">
+        <v>201</v>
+      </c>
+      <c r="B202" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75">
-      <c r="A202" s="21">
-        <v>201</v>
-      </c>
-      <c r="B202" s="24" t="s">
+    <row r="203" spans="1:2" ht="15.75">
+      <c r="A203" s="19">
+        <v>202</v>
+      </c>
+      <c r="B203" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75">
-      <c r="A203" s="21">
-        <v>202</v>
-      </c>
-      <c r="B203" s="24" t="s">
+    <row r="204" spans="1:2" ht="15.75">
+      <c r="A204" s="19">
+        <v>203</v>
+      </c>
+      <c r="B204" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75">
-      <c r="A204" s="21">
-        <v>203</v>
-      </c>
-      <c r="B204" s="24" t="s">
+    <row r="205" spans="1:2" ht="15.75">
+      <c r="A205" s="19">
+        <v>204</v>
+      </c>
+      <c r="B205" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75">
-      <c r="A205" s="21">
-        <v>204</v>
-      </c>
-      <c r="B205" s="24" t="s">
+    <row r="206" spans="1:2" ht="15.75">
+      <c r="A206" s="19">
+        <v>205</v>
+      </c>
+      <c r="B206" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75">
-      <c r="A206" s="21">
-        <v>205</v>
-      </c>
-      <c r="B206" s="24" t="s">
+    <row r="207" spans="1:2" ht="15.75">
+      <c r="A207" s="19">
+        <v>206</v>
+      </c>
+      <c r="B207" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75">
-      <c r="A207" s="21">
-        <v>206</v>
-      </c>
-      <c r="B207" s="24" t="s">
+    <row r="208" spans="1:2" ht="15.75">
+      <c r="A208" s="19">
+        <v>207</v>
+      </c>
+      <c r="B208" s="24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75">
-      <c r="A208" s="21">
-        <v>207</v>
-      </c>
-      <c r="B208" s="24" t="s">
+    <row r="209" spans="1:2" ht="15.75">
+      <c r="A209" s="19">
+        <v>208</v>
+      </c>
+      <c r="B209" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75">
-      <c r="A209" s="21">
-        <v>208</v>
-      </c>
-      <c r="B209" s="24" t="s">
+    <row r="210" spans="1:2" ht="15.75">
+      <c r="A210" s="19">
+        <v>209</v>
+      </c>
+      <c r="B210" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75">
-      <c r="A210" s="21">
-        <v>209</v>
-      </c>
-      <c r="B210" s="24" t="s">
+    <row r="211" spans="1:2" ht="15.75">
+      <c r="A211" s="19">
+        <v>210</v>
+      </c>
+      <c r="B211" s="24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75">
-      <c r="A211" s="21">
-        <v>210</v>
-      </c>
-      <c r="B211" s="24" t="s">
+    <row r="212" spans="1:2" ht="15.75">
+      <c r="A212" s="19">
+        <v>211</v>
+      </c>
+      <c r="B212" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75">
-      <c r="A212" s="21">
-        <v>211</v>
-      </c>
-      <c r="B212" s="24" t="s">
+    <row r="213" spans="1:2" ht="15.75">
+      <c r="A213" s="19">
+        <v>212</v>
+      </c>
+      <c r="B213" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75">
-      <c r="A213" s="21">
-        <v>212</v>
-      </c>
-      <c r="B213" s="24" t="s">
+    <row r="214" spans="1:2" ht="15.75">
+      <c r="A214" s="19">
+        <v>213</v>
+      </c>
+      <c r="B214" s="24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75">
-      <c r="A214" s="21">
-        <v>213</v>
-      </c>
-      <c r="B214" s="24" t="s">
+    <row r="215" spans="1:2" ht="15.75">
+      <c r="A215" s="19">
+        <v>214</v>
+      </c>
+      <c r="B215" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75">
-      <c r="A215" s="21">
-        <v>214</v>
-      </c>
-      <c r="B215" s="24" t="s">
+    <row r="216" spans="1:2" ht="15.75">
+      <c r="A216" s="19">
+        <v>215</v>
+      </c>
+      <c r="B216" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75">
-      <c r="A216" s="21">
-        <v>215</v>
-      </c>
-      <c r="B216" s="24" t="s">
+    <row r="217" spans="1:2" ht="15.75">
+      <c r="A217" s="19">
+        <v>216</v>
+      </c>
+      <c r="B217" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75">
-      <c r="A217" s="21">
-        <v>216</v>
-      </c>
-      <c r="B217" s="24" t="s">
+    <row r="218" spans="1:2" ht="15.75">
+      <c r="A218" s="19">
+        <v>217</v>
+      </c>
+      <c r="B218" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75">
-      <c r="A218" s="21">
-        <v>217</v>
-      </c>
-      <c r="B218" s="24" t="s">
+    <row r="219" spans="1:2" ht="15.75">
+      <c r="A219" s="19">
+        <v>218</v>
+      </c>
+      <c r="B219" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75">
-      <c r="A219" s="21">
-        <v>218</v>
-      </c>
-      <c r="B219" s="24" t="s">
+    <row r="220" spans="1:2" ht="15.75">
+      <c r="A220" s="19">
+        <v>219</v>
+      </c>
+      <c r="B220" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75">
-      <c r="A220" s="21">
-        <v>219</v>
-      </c>
-      <c r="B220" s="24" t="s">
+    <row r="221" spans="1:2" ht="15.75">
+      <c r="A221" s="19">
+        <v>220</v>
+      </c>
+      <c r="B221" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75">
-      <c r="A221" s="21">
-        <v>220</v>
-      </c>
-      <c r="B221" s="24" t="s">
+    <row r="222" spans="1:2" ht="15.75">
+      <c r="A222" s="19">
+        <v>221</v>
+      </c>
+      <c r="B222" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75">
-      <c r="A222" s="21">
-        <v>221</v>
-      </c>
-      <c r="B222" s="24" t="s">
+    <row r="223" spans="1:2" ht="15.75">
+      <c r="A223" s="19">
+        <v>222</v>
+      </c>
+      <c r="B223" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75">
-      <c r="A223" s="21">
-        <v>222</v>
-      </c>
-      <c r="B223" s="24" t="s">
+    <row r="224" spans="1:2" ht="15.75">
+      <c r="A224" s="19">
+        <v>223</v>
+      </c>
+      <c r="B224" s="24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75">
-      <c r="A224" s="21">
-        <v>223</v>
-      </c>
-      <c r="B224" s="24" t="s">
+    <row r="225" spans="1:2" ht="15.75">
+      <c r="A225" s="19">
+        <v>224</v>
+      </c>
+      <c r="B225" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75">
-      <c r="A225" s="21">
-        <v>224</v>
-      </c>
-      <c r="B225" s="24" t="s">
+    <row r="226" spans="1:2" ht="15.75">
+      <c r="A226" s="19">
+        <v>225</v>
+      </c>
+      <c r="B226" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75">
-      <c r="A226" s="21">
-        <v>225</v>
-      </c>
-      <c r="B226" s="24" t="s">
+    <row r="227" spans="1:2" ht="15.75">
+      <c r="A227" s="19">
+        <v>226</v>
+      </c>
+      <c r="B227" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75">
-      <c r="A227" s="21">
-        <v>226</v>
-      </c>
-      <c r="B227" s="24" t="s">
+    <row r="228" spans="1:2" ht="15.75">
+      <c r="A228" s="19">
+        <v>227</v>
+      </c>
+      <c r="B228" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75">
-      <c r="A228" s="21">
-        <v>227</v>
-      </c>
-      <c r="B228" s="24" t="s">
+    <row r="229" spans="1:2" ht="15.75">
+      <c r="A229" s="19">
+        <v>228</v>
+      </c>
+      <c r="B229" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75">
-      <c r="A229" s="21">
-        <v>228</v>
-      </c>
-      <c r="B229" s="24" t="s">
+    <row r="230" spans="1:2" ht="15.75">
+      <c r="A230" s="19">
+        <v>229</v>
+      </c>
+      <c r="B230" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75">
-      <c r="A230" s="21">
-        <v>229</v>
-      </c>
-      <c r="B230" s="24" t="s">
+    <row r="231" spans="1:2" ht="15.75">
+      <c r="A231" s="19">
+        <v>230</v>
+      </c>
+      <c r="B231" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75">
-      <c r="A231" s="21">
-        <v>230</v>
-      </c>
-      <c r="B231" s="24" t="s">
+    <row r="232" spans="1:2" ht="15.75">
+      <c r="A232" s="19">
+        <v>231</v>
+      </c>
+      <c r="B232" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75">
-      <c r="A232" s="21">
-        <v>231</v>
-      </c>
-      <c r="B232" s="24" t="s">
+    <row r="233" spans="1:2" ht="15.75">
+      <c r="A233" s="19">
+        <v>232</v>
+      </c>
+      <c r="B233" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75">
-      <c r="A233" s="21">
-        <v>232</v>
-      </c>
-      <c r="B233" s="24" t="s">
+    <row r="234" spans="1:2" ht="15.75">
+      <c r="A234" s="19">
+        <v>233</v>
+      </c>
+      <c r="B234" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75">
-      <c r="A234" s="21">
-        <v>233</v>
-      </c>
-      <c r="B234" s="24" t="s">
+    <row r="235" spans="1:2" ht="15.75">
+      <c r="A235" s="19">
+        <v>234</v>
+      </c>
+      <c r="B235" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75">
-      <c r="A235" s="21">
-        <v>234</v>
-      </c>
-      <c r="B235" s="24" t="s">
+    <row r="236" spans="1:2" ht="15.75">
+      <c r="A236" s="19">
+        <v>235</v>
+      </c>
+      <c r="B236" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75">
-      <c r="A236" s="21">
-        <v>235</v>
-      </c>
-      <c r="B236" s="24" t="s">
+    <row r="237" spans="1:2" ht="31.5">
+      <c r="A237" s="19">
+        <v>236</v>
+      </c>
+      <c r="B237" s="28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75">
-      <c r="A237" s="21">
-        <v>236</v>
-      </c>
-      <c r="B237" s="24" t="s">
+    <row r="238" spans="1:2" ht="31.5">
+      <c r="A238" s="19">
+        <v>237</v>
+      </c>
+      <c r="B238" s="28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="31.5">
-      <c r="A238" s="21">
-        <v>237</v>
-      </c>
-      <c r="B238" s="28" t="s">
+    <row r="239" spans="1:2">
+      <c r="A239" s="19">
+        <v>238</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75">
+      <c r="A240" s="19">
+        <v>239</v>
+      </c>
+      <c r="B240" s="24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="31.5">
-      <c r="A239" s="21">
-        <v>238</v>
-      </c>
-      <c r="B239" s="28" t="s">
+    <row r="241" spans="1:2" ht="15.75">
+      <c r="A241" s="19">
+        <v>240</v>
+      </c>
+      <c r="B241" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75">
-      <c r="A240" s="21">
-        <v>239</v>
-      </c>
-      <c r="B240" s="24" t="s">
+    <row r="242" spans="1:2" ht="15.75">
+      <c r="A242" s="19">
+        <v>241</v>
+      </c>
+      <c r="B242" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75">
-      <c r="A241" s="21">
-        <v>240</v>
-      </c>
-      <c r="B241" s="24" t="s">
+    <row r="243" spans="1:2" ht="15.75">
+      <c r="A243" s="19">
+        <v>242</v>
+      </c>
+      <c r="B243" s="24" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75">
-      <c r="A242" s="21">
-        <v>241</v>
-      </c>
-      <c r="B242" s="24" t="s">
+    <row r="244" spans="1:2" ht="15.75">
+      <c r="A244" s="19">
+        <v>243</v>
+      </c>
+      <c r="B244" s="24" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75">
-      <c r="A243" s="21">
-        <v>242</v>
-      </c>
-      <c r="B243" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="15.75">
-      <c r="A244" s="21">
-        <v>243</v>
-      </c>
-      <c r="B244" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="15.75">
-      <c r="A245" s="21">
-        <v>244</v>
-      </c>
-      <c r="B245" s="24" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/help/extra_izv.xlsx
+++ b/help/extra_izv.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
     <sheet name="cverka" sheetId="3" r:id="rId3"/>
     <sheet name="regiz" sheetId="4" r:id="rId4"/>
-    <sheet name="nsi" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="anal" sheetId="6" r:id="rId5"/>
+    <sheet name="nsi" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">anal!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cverka!$A$2:$H$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nsi!$A$1:$B$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">nsi!$A$1:$B$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regiz!$A$1:$E$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">svod!$A$2:$D$248</definedName>
   </definedNames>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="364">
   <si>
     <t>Количество переданных в ФБУЗ «Центр гигиены и эпидимиологии в Санкт-Петербурге» экстренных извещений Роспотребнадзора</t>
   </si>
@@ -1102,13 +1104,34 @@
   </si>
   <si>
     <t>Количество СЭМД  в очереди на контроль в ГИС РЕГИЗ (ошибки на стороне МИС МО)</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>oid организации</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>МО</t>
+  </si>
+  <si>
+    <t>Передано в РЕГИЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передано в РЭМД успешно </t>
+  </si>
+  <si>
+    <t>Количество подвисанных СЭМДов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1208,6 +1231,13 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1845,7 +1875,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2092,10 +2122,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2119,6 +2145,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3548,12 +3587,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
@@ -8023,7 +8062,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8046,7 +8085,7 @@
       <c r="C1" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="82" t="s">
         <v>356</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -8072,7 +8111,7 @@
       <c r="C2" s="48">
         <v>3</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="83">
         <v>4</v>
       </c>
       <c r="E2" s="47">
@@ -8127,15 +8166,15 @@
         <f>IFERROR(VLOOKUP($A4,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A4,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A4,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A4,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8156,19 +8195,19 @@
         <f>IFERROR(VLOOKUP($A5,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="84">
         <f>IFERROR(VLOOKUP($A5,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A5,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A5,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A5,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8189,19 +8228,19 @@
         <f>IFERROR(VLOOKUP($A6,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="84">
         <f>IFERROR(VLOOKUP($A6,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A6,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A6,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A6,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8222,19 +8261,19 @@
         <f>IFERROR(VLOOKUP($A7,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="84">
         <f>IFERROR(VLOOKUP($A7,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A7,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A7,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A7,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8255,19 +8294,19 @@
         <f>IFERROR(VLOOKUP($A8,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="84">
         <f>IFERROR(VLOOKUP($A8,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A8,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A8,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A8,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8288,19 +8327,19 @@
         <f>IFERROR(VLOOKUP($A9,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="84">
         <f>IFERROR(VLOOKUP($A9,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A9,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A9,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A9,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8321,19 +8360,19 @@
         <f>IFERROR(VLOOKUP($A10,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="84">
         <f>IFERROR(VLOOKUP($A10,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A10,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A10,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A10,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8354,19 +8393,19 @@
         <f>IFERROR(VLOOKUP($A11,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="84">
         <f>IFERROR(VLOOKUP($A11,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A11,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A11,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A11,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8387,19 +8426,19 @@
         <f>IFERROR(VLOOKUP($A12,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="84">
         <f>IFERROR(VLOOKUP($A12,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A12,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A12,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A12,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8424,15 +8463,15 @@
         <f>IFERROR(VLOOKUP($A13,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A13,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A13,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A13,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8484,15 +8523,15 @@
         <f>IFERROR(VLOOKUP($A15,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A15,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A15,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A15,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8513,19 +8552,19 @@
         <f>IFERROR(VLOOKUP($A16,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="84">
         <f>IFERROR(VLOOKUP($A16,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A16,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A16,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A16,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8546,19 +8585,19 @@
         <f>IFERROR(VLOOKUP($A17,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="84">
         <f>IFERROR(VLOOKUP($A17,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A17,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A17,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A17,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8579,19 +8618,19 @@
         <f>IFERROR(VLOOKUP($A18,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="84">
         <f>IFERROR(VLOOKUP($A18,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A18,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A18,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A18,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8612,19 +8651,19 @@
         <f>IFERROR(VLOOKUP($A19,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="84">
         <f>IFERROR(VLOOKUP($A19,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A19,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A19,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A19,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8645,19 +8684,19 @@
         <f>IFERROR(VLOOKUP($A20,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="84">
         <f>IFERROR(VLOOKUP($A20,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A20,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A20,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A20,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8682,15 +8721,15 @@
         <f>IFERROR(VLOOKUP($A21,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A21,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A21,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A21,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8742,15 +8781,15 @@
         <f>IFERROR(VLOOKUP($A23,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A23,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A23,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A23,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8771,19 +8810,19 @@
         <f>IFERROR(VLOOKUP($A24,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="84">
         <f>IFERROR(VLOOKUP($A24,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A24,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A24,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A24,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8804,19 +8843,19 @@
         <f>IFERROR(VLOOKUP($A25,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="84">
         <f>IFERROR(VLOOKUP($A25,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A25,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A25,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A25,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8837,19 +8876,19 @@
         <f>IFERROR(VLOOKUP($A26,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="84">
         <f>IFERROR(VLOOKUP($A26,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A26,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="91">
+      <c r="E26" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A26,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A26,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8870,19 +8909,19 @@
         <f>IFERROR(VLOOKUP($A27,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="84">
         <f>IFERROR(VLOOKUP($A27,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A27,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A27,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A27,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8903,19 +8942,19 @@
         <f>IFERROR(VLOOKUP($A28,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="84">
         <f>IFERROR(VLOOKUP($A28,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A28,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A28,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A28,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8936,19 +8975,19 @@
         <f>IFERROR(VLOOKUP($A29,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="84">
         <f>IFERROR(VLOOKUP($A29,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A29,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A29,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A29,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -8969,19 +9008,19 @@
         <f>IFERROR(VLOOKUP($A30,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="84">
         <f>IFERROR(VLOOKUP($A30,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="91">
+      <c r="D30" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A30,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="91">
+      <c r="E30" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A30,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A30,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9002,19 +9041,19 @@
         <f>IFERROR(VLOOKUP($A31,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="84">
         <f>IFERROR(VLOOKUP($A31,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="91">
+      <c r="D31" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A31,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A31,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A31,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9035,19 +9074,19 @@
         <f>IFERROR(VLOOKUP($A32,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="84">
         <f>IFERROR(VLOOKUP($A32,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A32,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="91">
+      <c r="E32" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A32,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A32,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9068,19 +9107,19 @@
         <f>IFERROR(VLOOKUP($A33,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="84">
         <f>IFERROR(VLOOKUP($A33,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A33,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A33,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A33,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9101,19 +9140,19 @@
         <f>IFERROR(VLOOKUP($A34,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="84">
         <f>IFERROR(VLOOKUP($A34,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="91">
+      <c r="D34" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A34,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="91">
+      <c r="E34" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A34,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A34,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9134,19 +9173,19 @@
         <f>IFERROR(VLOOKUP($A35,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="84">
         <f>IFERROR(VLOOKUP($A35,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="91">
+      <c r="D35" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A35,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="91">
+      <c r="E35" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A35,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="91">
+      <c r="F35" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A35,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9167,19 +9206,19 @@
         <f>IFERROR(VLOOKUP($A36,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="84">
         <f>IFERROR(VLOOKUP($A36,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A36,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="91">
+      <c r="E36" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A36,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="91">
+      <c r="F36" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A36,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9200,19 +9239,19 @@
         <f>IFERROR(VLOOKUP($A37,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="84">
         <f>IFERROR(VLOOKUP($A37,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="91">
+      <c r="D37" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A37,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="91">
+      <c r="E37" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A37,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A37,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9237,15 +9276,15 @@
         <f>IFERROR(VLOOKUP($A38,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="89">
+      <c r="D38" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A38,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="89">
+      <c r="E38" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A38,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="90">
+      <c r="F38" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A38,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9297,15 +9336,15 @@
         <f>IFERROR(VLOOKUP($A40,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A40,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E40" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A40,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="88">
+      <c r="F40" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A40,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9326,19 +9365,19 @@
         <f>IFERROR(VLOOKUP($A41,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="86">
+      <c r="C41" s="84">
         <f>IFERROR(VLOOKUP($A41,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="91">
+      <c r="D41" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A41,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="91">
+      <c r="E41" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A41,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="91">
+      <c r="F41" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A41,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9359,19 +9398,19 @@
         <f>IFERROR(VLOOKUP($A42,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="84">
         <f>IFERROR(VLOOKUP($A42,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="91">
+      <c r="D42" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A42,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="91">
+      <c r="E42" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A42,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="91">
+      <c r="F42" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A42,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9392,19 +9431,19 @@
         <f>IFERROR(VLOOKUP($A43,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="84">
         <f>IFERROR(VLOOKUP($A43,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="91">
+      <c r="D43" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A43,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="91">
+      <c r="E43" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A43,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="91">
+      <c r="F43" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A43,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9425,19 +9464,19 @@
         <f>IFERROR(VLOOKUP($A44,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="86">
+      <c r="C44" s="84">
         <f>IFERROR(VLOOKUP($A44,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="91">
+      <c r="D44" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A44,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A44,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="91">
+      <c r="F44" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A44,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9458,19 +9497,19 @@
         <f>IFERROR(VLOOKUP($A45,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="84">
         <f>IFERROR(VLOOKUP($A45,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="91">
+      <c r="D45" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A45,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A45,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="91">
+      <c r="F45" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A45,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9491,19 +9530,19 @@
         <f>IFERROR(VLOOKUP($A46,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="86">
+      <c r="C46" s="84">
         <f>IFERROR(VLOOKUP($A46,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="91">
+      <c r="D46" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A46,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="91">
+      <c r="E46" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A46,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="91">
+      <c r="F46" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A46,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9524,19 +9563,19 @@
         <f>IFERROR(VLOOKUP($A47,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="84">
         <f>IFERROR(VLOOKUP($A47,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="91">
+      <c r="D47" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A47,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="91">
+      <c r="E47" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A47,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A47,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9557,19 +9596,19 @@
         <f>IFERROR(VLOOKUP($A48,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="84">
         <f>IFERROR(VLOOKUP($A48,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="91">
+      <c r="D48" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A48,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="91">
+      <c r="E48" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A48,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="91">
+      <c r="F48" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A48,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9590,19 +9629,19 @@
         <f>IFERROR(VLOOKUP($A49,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="86">
+      <c r="C49" s="84">
         <f>IFERROR(VLOOKUP($A49,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="91">
+      <c r="D49" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A49,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="91">
+      <c r="E49" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A49,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="91">
+      <c r="F49" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A49,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9623,19 +9662,19 @@
         <f>IFERROR(VLOOKUP($A50,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C50" s="86">
+      <c r="C50" s="84">
         <f>IFERROR(VLOOKUP($A50,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="91">
+      <c r="D50" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A50,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="91">
+      <c r="E50" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A50,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="91">
+      <c r="F50" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A50,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9660,15 +9699,15 @@
         <f>IFERROR(VLOOKUP($A51,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="89">
+      <c r="D51" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A51,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A51,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="90">
+      <c r="F51" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A51,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9720,15 +9759,15 @@
         <f>IFERROR(VLOOKUP($A53,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A53,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="87">
+      <c r="E53" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A53,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="88">
+      <c r="F53" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A53,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9749,19 +9788,19 @@
         <f>IFERROR(VLOOKUP($A54,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="86">
+      <c r="C54" s="84">
         <f>IFERROR(VLOOKUP($A54,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="91">
+      <c r="D54" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A54,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="91">
+      <c r="E54" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A54,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A54,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9782,19 +9821,19 @@
         <f>IFERROR(VLOOKUP($A55,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="86">
+      <c r="C55" s="84">
         <f>IFERROR(VLOOKUP($A55,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="91">
+      <c r="D55" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A55,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="91">
+      <c r="E55" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A55,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="91">
+      <c r="F55" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A55,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9815,19 +9854,19 @@
         <f>IFERROR(VLOOKUP($A56,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="86">
+      <c r="C56" s="84">
         <f>IFERROR(VLOOKUP($A56,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="91">
+      <c r="D56" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A56,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="91">
+      <c r="E56" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A56,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="91">
+      <c r="F56" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A56,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9848,19 +9887,19 @@
         <f>IFERROR(VLOOKUP($A57,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="86">
+      <c r="C57" s="84">
         <f>IFERROR(VLOOKUP($A57,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="91">
+      <c r="D57" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A57,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="91">
+      <c r="E57" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A57,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="91">
+      <c r="F57" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A57,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9881,19 +9920,19 @@
         <f>IFERROR(VLOOKUP($A58,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C58" s="86">
+      <c r="C58" s="84">
         <f>IFERROR(VLOOKUP($A58,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="91">
+      <c r="D58" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A58,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="91">
+      <c r="E58" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A58,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="91">
+      <c r="F58" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A58,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9914,19 +9953,19 @@
         <f>IFERROR(VLOOKUP($A59,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C59" s="86">
+      <c r="C59" s="84">
         <f>IFERROR(VLOOKUP($A59,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="91">
+      <c r="D59" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A59,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="91">
+      <c r="E59" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A59,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="91">
+      <c r="F59" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A59,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9947,19 +9986,19 @@
         <f>IFERROR(VLOOKUP($A60,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C60" s="86">
+      <c r="C60" s="84">
         <f>IFERROR(VLOOKUP($A60,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="91">
+      <c r="D60" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A60,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="91">
+      <c r="E60" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A60,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="91">
+      <c r="F60" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A60,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -9980,19 +10019,19 @@
         <f>IFERROR(VLOOKUP($A61,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="86">
+      <c r="C61" s="84">
         <f>IFERROR(VLOOKUP($A61,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="91">
+      <c r="D61" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A61,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="91">
+      <c r="E61" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A61,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="91">
+      <c r="F61" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A61,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10017,15 +10056,15 @@
         <f>IFERROR(VLOOKUP($A62,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="89">
+      <c r="D62" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A62,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="89">
+      <c r="E62" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A62,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="90">
+      <c r="F62" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A62,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10077,15 +10116,15 @@
         <f>IFERROR(VLOOKUP($A64,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D64" s="87">
+      <c r="D64" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A64,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E64" s="87">
+      <c r="E64" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A64,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="88">
+      <c r="F64" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A64,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10106,19 +10145,19 @@
         <f>IFERROR(VLOOKUP($A65,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C65" s="86">
+      <c r="C65" s="84">
         <f>IFERROR(VLOOKUP($A65,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="91">
+      <c r="D65" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A65,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="91">
+      <c r="E65" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A65,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="91">
+      <c r="F65" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A65,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10139,19 +10178,19 @@
         <f>IFERROR(VLOOKUP($A66,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="86">
+      <c r="C66" s="84">
         <f>IFERROR(VLOOKUP($A66,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="91">
+      <c r="D66" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A66,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A66,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="91">
+      <c r="F66" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A66,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10172,19 +10211,19 @@
         <f>IFERROR(VLOOKUP($A67,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="86">
+      <c r="C67" s="84">
         <f>IFERROR(VLOOKUP($A67,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="91">
+      <c r="D67" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A67,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="91">
+      <c r="E67" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A67,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F67" s="91">
+      <c r="F67" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A67,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10205,19 +10244,19 @@
         <f>IFERROR(VLOOKUP($A68,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C68" s="86">
+      <c r="C68" s="84">
         <f>IFERROR(VLOOKUP($A68,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="91">
+      <c r="D68" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A68,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="91">
+      <c r="E68" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A68,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="91">
+      <c r="F68" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A68,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10238,19 +10277,19 @@
         <f>IFERROR(VLOOKUP($A69,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C69" s="86">
+      <c r="C69" s="84">
         <f>IFERROR(VLOOKUP($A69,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="91">
+      <c r="D69" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A69,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="91">
+      <c r="E69" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A69,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="91">
+      <c r="F69" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A69,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10271,19 +10310,19 @@
         <f>IFERROR(VLOOKUP($A70,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="86">
+      <c r="C70" s="84">
         <f>IFERROR(VLOOKUP($A70,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D70" s="91">
+      <c r="D70" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A70,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="91">
+      <c r="E70" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A70,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="91">
+      <c r="F70" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A70,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10304,19 +10343,19 @@
         <f>IFERROR(VLOOKUP($A71,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="84">
         <f>IFERROR(VLOOKUP($A71,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="91">
+      <c r="D71" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A71,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="91">
+      <c r="E71" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A71,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F71" s="91">
+      <c r="F71" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A71,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10337,19 +10376,19 @@
         <f>IFERROR(VLOOKUP($A72,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="86">
+      <c r="C72" s="84">
         <f>IFERROR(VLOOKUP($A72,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="91">
+      <c r="D72" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A72,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="91">
+      <c r="E72" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A72,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F72" s="91">
+      <c r="F72" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A72,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10374,15 +10413,15 @@
         <f>IFERROR(VLOOKUP($A73,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="89">
+      <c r="D73" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A73,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A73,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="90">
+      <c r="F73" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A73,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10434,15 +10473,15 @@
         <f>IFERROR(VLOOKUP($A75,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="87">
+      <c r="D75" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A75,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="87">
+      <c r="E75" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A75,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F75" s="88">
+      <c r="F75" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A75,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10463,19 +10502,19 @@
         <f>IFERROR(VLOOKUP($A76,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="86">
+      <c r="C76" s="84">
         <f>IFERROR(VLOOKUP($A76,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="91">
+      <c r="D76" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A76,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="91">
+      <c r="E76" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A76,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="91">
+      <c r="F76" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A76,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10496,19 +10535,19 @@
         <f>IFERROR(VLOOKUP($A77,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="86">
+      <c r="C77" s="84">
         <f>IFERROR(VLOOKUP($A77,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="91">
+      <c r="D77" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A77,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="91">
+      <c r="E77" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A77,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F77" s="91">
+      <c r="F77" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A77,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10529,19 +10568,19 @@
         <f>IFERROR(VLOOKUP($A78,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="86">
+      <c r="C78" s="84">
         <f>IFERROR(VLOOKUP($A78,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="91">
+      <c r="D78" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A78,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E78" s="91">
+      <c r="E78" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A78,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F78" s="91">
+      <c r="F78" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A78,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10562,19 +10601,19 @@
         <f>IFERROR(VLOOKUP($A79,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C79" s="86">
+      <c r="C79" s="84">
         <f>IFERROR(VLOOKUP($A79,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D79" s="91">
+      <c r="D79" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A79,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="91">
+      <c r="E79" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A79,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="91">
+      <c r="F79" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A79,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10595,19 +10634,19 @@
         <f>IFERROR(VLOOKUP($A80,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C80" s="86">
+      <c r="C80" s="84">
         <f>IFERROR(VLOOKUP($A80,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="91">
+      <c r="D80" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A80,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="91">
+      <c r="E80" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A80,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F80" s="91">
+      <c r="F80" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A80,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10628,19 +10667,19 @@
         <f>IFERROR(VLOOKUP($A81,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C81" s="86">
+      <c r="C81" s="84">
         <f>IFERROR(VLOOKUP($A81,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="91">
+      <c r="D81" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A81,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E81" s="91">
+      <c r="E81" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A81,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="91">
+      <c r="F81" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A81,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10661,19 +10700,19 @@
         <f>IFERROR(VLOOKUP($A82,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="86">
+      <c r="C82" s="84">
         <f>IFERROR(VLOOKUP($A82,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="91">
+      <c r="D82" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A82,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E82" s="91">
+      <c r="E82" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A82,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="91">
+      <c r="F82" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A82,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10694,19 +10733,19 @@
         <f>IFERROR(VLOOKUP($A83,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="86">
+      <c r="C83" s="84">
         <f>IFERROR(VLOOKUP($A83,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="91">
+      <c r="D83" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A83,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="91">
+      <c r="E83" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A83,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="91">
+      <c r="F83" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A83,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10731,15 +10770,15 @@
         <f>IFERROR(VLOOKUP($A84,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="89">
+      <c r="D84" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A84,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A84,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="90">
+      <c r="F84" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A84,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10791,15 +10830,15 @@
         <f>IFERROR(VLOOKUP($A86,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A86,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="87">
+      <c r="E86" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A86,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="88">
+      <c r="F86" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A86,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10820,19 +10859,19 @@
         <f>IFERROR(VLOOKUP($A87,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C87" s="86">
+      <c r="C87" s="84">
         <f>IFERROR(VLOOKUP($A87,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="91">
+      <c r="D87" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A87,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E87" s="91">
+      <c r="E87" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A87,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F87" s="91">
+      <c r="F87" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A87,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10853,19 +10892,19 @@
         <f>IFERROR(VLOOKUP($A88,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C88" s="86">
+      <c r="C88" s="84">
         <f>IFERROR(VLOOKUP($A88,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D88" s="91">
+      <c r="D88" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A88,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A88,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F88" s="91">
+      <c r="F88" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A88,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10886,19 +10925,19 @@
         <f>IFERROR(VLOOKUP($A89,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="86">
+      <c r="C89" s="84">
         <f>IFERROR(VLOOKUP($A89,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="91">
+      <c r="D89" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A89,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E89" s="91">
+      <c r="E89" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A89,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="91">
+      <c r="F89" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A89,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -10923,15 +10962,15 @@
         <f>IFERROR(VLOOKUP($A90,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D90" s="89">
+      <c r="D90" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A90,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E90" s="89">
+      <c r="E90" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A90,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F90" s="90">
+      <c r="F90" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A90,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11136,15 +11175,15 @@
         <f>IFERROR(VLOOKUP($A97,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="87">
+      <c r="D97" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A97,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="87">
+      <c r="E97" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A97,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="88">
+      <c r="F97" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A97,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11165,19 +11204,19 @@
         <f>IFERROR(VLOOKUP($A98,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C98" s="86">
+      <c r="C98" s="84">
         <f>IFERROR(VLOOKUP($A98,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="91">
+      <c r="D98" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A98,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E98" s="91">
+      <c r="E98" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A98,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="91">
+      <c r="F98" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A98,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11198,19 +11237,19 @@
         <f>IFERROR(VLOOKUP($A99,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C99" s="86">
+      <c r="C99" s="84">
         <f>IFERROR(VLOOKUP($A99,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="91">
+      <c r="D99" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A99,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E99" s="91">
+      <c r="E99" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A99,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="91">
+      <c r="F99" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A99,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11231,19 +11270,19 @@
         <f>IFERROR(VLOOKUP($A100,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C100" s="86">
+      <c r="C100" s="84">
         <f>IFERROR(VLOOKUP($A100,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="91">
+      <c r="D100" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A100,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="91">
+      <c r="E100" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A100,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="91">
+      <c r="F100" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A100,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11264,19 +11303,19 @@
         <f>IFERROR(VLOOKUP($A101,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C101" s="86">
+      <c r="C101" s="84">
         <f>IFERROR(VLOOKUP($A101,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D101" s="91">
+      <c r="D101" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A101,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E101" s="91">
+      <c r="E101" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A101,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F101" s="91">
+      <c r="F101" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A101,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11297,19 +11336,19 @@
         <f>IFERROR(VLOOKUP($A102,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C102" s="86">
+      <c r="C102" s="84">
         <f>IFERROR(VLOOKUP($A102,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="91">
+      <c r="D102" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A102,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E102" s="91">
+      <c r="E102" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A102,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F102" s="91">
+      <c r="F102" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A102,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11330,19 +11369,19 @@
         <f>IFERROR(VLOOKUP($A103,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C103" s="86">
+      <c r="C103" s="84">
         <f>IFERROR(VLOOKUP($A103,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="91">
+      <c r="D103" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A103,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="91">
+      <c r="E103" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A103,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="91">
+      <c r="F103" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A103,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11363,19 +11402,19 @@
         <f>IFERROR(VLOOKUP($A104,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C104" s="86">
+      <c r="C104" s="84">
         <f>IFERROR(VLOOKUP($A104,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="91">
+      <c r="D104" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A104,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="91">
+      <c r="E104" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A104,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F104" s="91">
+      <c r="F104" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A104,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11396,19 +11435,19 @@
         <f>IFERROR(VLOOKUP($A105,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C105" s="86">
+      <c r="C105" s="84">
         <f>IFERROR(VLOOKUP($A105,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="91">
+      <c r="D105" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A105,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E105" s="91">
+      <c r="E105" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A105,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F105" s="91">
+      <c r="F105" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A105,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11429,19 +11468,19 @@
         <f>IFERROR(VLOOKUP($A106,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C106" s="86">
+      <c r="C106" s="84">
         <f>IFERROR(VLOOKUP($A106,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D106" s="91">
+      <c r="D106" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A106,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A106,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F106" s="91">
+      <c r="F106" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A106,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11466,15 +11505,15 @@
         <f>IFERROR(VLOOKUP($A107,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="89">
+      <c r="D107" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A107,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E107" s="89">
+      <c r="E107" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A107,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F107" s="90">
+      <c r="F107" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A107,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11526,15 +11565,15 @@
         <f>IFERROR(VLOOKUP($A109,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="87">
+      <c r="D109" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A109,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E109" s="87">
+      <c r="E109" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A109,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F109" s="88">
+      <c r="F109" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A109,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11555,19 +11594,19 @@
         <f>IFERROR(VLOOKUP($A110,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C110" s="86">
+      <c r="C110" s="84">
         <f>IFERROR(VLOOKUP($A110,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="91">
+      <c r="D110" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A110,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A110,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F110" s="91">
+      <c r="F110" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A110,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11588,19 +11627,19 @@
         <f>IFERROR(VLOOKUP($A111,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C111" s="86">
+      <c r="C111" s="84">
         <f>IFERROR(VLOOKUP($A111,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="91">
+      <c r="D111" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A111,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E111" s="91">
+      <c r="E111" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A111,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F111" s="91">
+      <c r="F111" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A111,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11621,19 +11660,19 @@
         <f>IFERROR(VLOOKUP($A112,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C112" s="86">
+      <c r="C112" s="84">
         <f>IFERROR(VLOOKUP($A112,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="91">
+      <c r="D112" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A112,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E112" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A112,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F112" s="91">
+      <c r="F112" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A112,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11654,19 +11693,19 @@
         <f>IFERROR(VLOOKUP($A113,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C113" s="86">
+      <c r="C113" s="84">
         <f>IFERROR(VLOOKUP($A113,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D113" s="91">
+      <c r="D113" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A113,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E113" s="91">
+      <c r="E113" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A113,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="91">
+      <c r="F113" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A113,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11687,19 +11726,19 @@
         <f>IFERROR(VLOOKUP($A114,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C114" s="86">
+      <c r="C114" s="84">
         <f>IFERROR(VLOOKUP($A114,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="91">
+      <c r="D114" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A114,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E114" s="91">
+      <c r="E114" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A114,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F114" s="91">
+      <c r="F114" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A114,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11720,19 +11759,19 @@
         <f>IFERROR(VLOOKUP($A115,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C115" s="86">
+      <c r="C115" s="84">
         <f>IFERROR(VLOOKUP($A115,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D115" s="91">
+      <c r="D115" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A115,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E115" s="91">
+      <c r="E115" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A115,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F115" s="91">
+      <c r="F115" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A115,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11753,19 +11792,19 @@
         <f>IFERROR(VLOOKUP($A116,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C116" s="86">
+      <c r="C116" s="84">
         <f>IFERROR(VLOOKUP($A116,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D116" s="91">
+      <c r="D116" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A116,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E116" s="91">
+      <c r="E116" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A116,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F116" s="91">
+      <c r="F116" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A116,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11786,19 +11825,19 @@
         <f>IFERROR(VLOOKUP($A117,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C117" s="86">
+      <c r="C117" s="84">
         <f>IFERROR(VLOOKUP($A117,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D117" s="91">
+      <c r="D117" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A117,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E117" s="91">
+      <c r="E117" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A117,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F117" s="91">
+      <c r="F117" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A117,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11819,19 +11858,19 @@
         <f>IFERROR(VLOOKUP($A118,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="86">
+      <c r="C118" s="84">
         <f>IFERROR(VLOOKUP($A118,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="91">
+      <c r="D118" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A118,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E118" s="91">
+      <c r="E118" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A118,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F118" s="91">
+      <c r="F118" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A118,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11852,19 +11891,19 @@
         <f>IFERROR(VLOOKUP($A119,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="86">
+      <c r="C119" s="84">
         <f>IFERROR(VLOOKUP($A119,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="91">
+      <c r="D119" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A119,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E119" s="91">
+      <c r="E119" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A119,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F119" s="91">
+      <c r="F119" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A119,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11885,19 +11924,19 @@
         <f>IFERROR(VLOOKUP($A120,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C120" s="86">
+      <c r="C120" s="84">
         <f>IFERROR(VLOOKUP($A120,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="91">
+      <c r="D120" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A120,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E120" s="91">
+      <c r="E120" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A120,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F120" s="91">
+      <c r="F120" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A120,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11918,19 +11957,19 @@
         <f>IFERROR(VLOOKUP($A121,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C121" s="86">
+      <c r="C121" s="84">
         <f>IFERROR(VLOOKUP($A121,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="91">
+      <c r="D121" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A121,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E121" s="91">
+      <c r="E121" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A121,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F121" s="91">
+      <c r="F121" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A121,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11951,19 +11990,19 @@
         <f>IFERROR(VLOOKUP($A122,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C122" s="86">
+      <c r="C122" s="84">
         <f>IFERROR(VLOOKUP($A122,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="91">
+      <c r="D122" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A122,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E122" s="91">
+      <c r="E122" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A122,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F122" s="91">
+      <c r="F122" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A122,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -11984,19 +12023,19 @@
         <f>IFERROR(VLOOKUP($A123,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C123" s="86">
+      <c r="C123" s="84">
         <f>IFERROR(VLOOKUP($A123,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D123" s="91">
+      <c r="D123" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A123,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E123" s="91">
+      <c r="E123" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A123,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="91">
+      <c r="F123" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A123,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12017,19 +12056,19 @@
         <f>IFERROR(VLOOKUP($A124,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C124" s="86">
+      <c r="C124" s="84">
         <f>IFERROR(VLOOKUP($A124,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="91">
+      <c r="D124" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A124,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E124" s="91">
+      <c r="E124" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A124,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F124" s="91">
+      <c r="F124" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A124,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12054,15 +12093,15 @@
         <f>IFERROR(VLOOKUP($A125,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D125" s="89">
+      <c r="D125" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A125,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E125" s="89">
+      <c r="E125" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A125,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F125" s="90">
+      <c r="F125" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A125,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12114,15 +12153,15 @@
         <f>IFERROR(VLOOKUP($A127,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D127" s="87">
+      <c r="D127" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A127,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E127" s="87">
+      <c r="E127" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A127,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F127" s="88">
+      <c r="F127" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A127,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12143,19 +12182,19 @@
         <f>IFERROR(VLOOKUP($A128,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C128" s="86">
+      <c r="C128" s="84">
         <f>IFERROR(VLOOKUP($A128,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="91">
+      <c r="D128" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A128,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E128" s="91">
+      <c r="E128" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A128,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="91">
+      <c r="F128" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A128,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12176,19 +12215,19 @@
         <f>IFERROR(VLOOKUP($A129,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C129" s="86">
+      <c r="C129" s="84">
         <f>IFERROR(VLOOKUP($A129,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="91">
+      <c r="D129" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A129,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E129" s="91">
+      <c r="E129" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A129,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F129" s="91">
+      <c r="F129" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A129,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12209,19 +12248,19 @@
         <f>IFERROR(VLOOKUP($A130,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C130" s="86">
+      <c r="C130" s="84">
         <f>IFERROR(VLOOKUP($A130,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D130" s="91">
+      <c r="D130" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A130,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E130" s="91">
+      <c r="E130" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A130,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F130" s="91">
+      <c r="F130" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A130,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12242,19 +12281,19 @@
         <f>IFERROR(VLOOKUP($A131,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C131" s="86">
+      <c r="C131" s="84">
         <f>IFERROR(VLOOKUP($A131,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D131" s="91">
+      <c r="D131" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A131,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E131" s="91">
+      <c r="E131" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A131,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F131" s="91">
+      <c r="F131" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A131,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12275,19 +12314,19 @@
         <f>IFERROR(VLOOKUP($A132,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C132" s="86">
+      <c r="C132" s="84">
         <f>IFERROR(VLOOKUP($A132,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D132" s="91">
+      <c r="D132" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A132,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E132" s="91">
+      <c r="E132" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A132,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F132" s="91">
+      <c r="F132" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A132,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12308,19 +12347,19 @@
         <f>IFERROR(VLOOKUP($A133,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C133" s="86">
+      <c r="C133" s="84">
         <f>IFERROR(VLOOKUP($A133,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="91">
+      <c r="D133" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A133,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E133" s="91">
+      <c r="E133" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A133,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F133" s="91">
+      <c r="F133" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A133,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12341,19 +12380,19 @@
         <f>IFERROR(VLOOKUP($A134,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C134" s="86">
+      <c r="C134" s="84">
         <f>IFERROR(VLOOKUP($A134,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D134" s="91">
+      <c r="D134" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A134,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="91">
+      <c r="E134" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A134,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F134" s="91">
+      <c r="F134" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A134,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12378,15 +12417,15 @@
         <f>IFERROR(VLOOKUP($A135,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D135" s="89">
+      <c r="D135" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A135,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E135" s="89">
+      <c r="E135" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A135,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F135" s="90">
+      <c r="F135" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A135,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12531,15 +12570,15 @@
         <f>IFERROR(VLOOKUP($A140,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D140" s="87">
+      <c r="D140" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A140,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E140" s="87">
+      <c r="E140" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A140,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F140" s="88">
+      <c r="F140" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A140,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12560,19 +12599,19 @@
         <f>IFERROR(VLOOKUP($A141,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C141" s="86">
+      <c r="C141" s="84">
         <f>IFERROR(VLOOKUP($A141,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D141" s="91">
+      <c r="D141" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A141,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E141" s="91">
+      <c r="E141" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A141,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F141" s="91">
+      <c r="F141" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A141,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12593,19 +12632,19 @@
         <f>IFERROR(VLOOKUP($A142,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C142" s="86">
+      <c r="C142" s="84">
         <f>IFERROR(VLOOKUP($A142,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D142" s="91">
+      <c r="D142" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A142,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E142" s="91">
+      <c r="E142" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A142,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F142" s="91">
+      <c r="F142" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A142,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12626,19 +12665,19 @@
         <f>IFERROR(VLOOKUP($A143,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C143" s="86">
+      <c r="C143" s="84">
         <f>IFERROR(VLOOKUP($A143,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D143" s="91">
+      <c r="D143" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A143,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E143" s="91">
+      <c r="E143" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A143,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="91">
+      <c r="F143" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A143,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12659,19 +12698,19 @@
         <f>IFERROR(VLOOKUP($A144,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C144" s="86">
+      <c r="C144" s="84">
         <f>IFERROR(VLOOKUP($A144,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="91">
+      <c r="D144" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A144,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E144" s="91">
+      <c r="E144" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A144,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F144" s="91">
+      <c r="F144" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A144,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12692,19 +12731,19 @@
         <f>IFERROR(VLOOKUP($A145,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C145" s="86">
+      <c r="C145" s="84">
         <f>IFERROR(VLOOKUP($A145,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D145" s="91">
+      <c r="D145" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A145,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E145" s="91">
+      <c r="E145" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A145,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F145" s="91">
+      <c r="F145" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A145,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12725,19 +12764,19 @@
         <f>IFERROR(VLOOKUP($A146,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C146" s="86">
+      <c r="C146" s="84">
         <f>IFERROR(VLOOKUP($A146,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D146" s="91">
+      <c r="D146" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A146,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E146" s="91">
+      <c r="E146" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A146,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F146" s="91">
+      <c r="F146" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A146,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12758,19 +12797,19 @@
         <f>IFERROR(VLOOKUP($A147,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C147" s="86">
+      <c r="C147" s="84">
         <f>IFERROR(VLOOKUP($A147,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D147" s="91">
+      <c r="D147" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A147,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E147" s="91">
+      <c r="E147" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A147,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F147" s="91">
+      <c r="F147" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A147,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12791,19 +12830,19 @@
         <f>IFERROR(VLOOKUP($A148,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C148" s="86">
+      <c r="C148" s="84">
         <f>IFERROR(VLOOKUP($A148,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D148" s="91">
+      <c r="D148" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A148,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E148" s="91">
+      <c r="E148" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A148,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F148" s="91">
+      <c r="F148" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A148,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12824,19 +12863,19 @@
         <f>IFERROR(VLOOKUP($A149,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C149" s="86">
+      <c r="C149" s="84">
         <f>IFERROR(VLOOKUP($A149,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D149" s="91">
+      <c r="D149" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A149,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E149" s="91">
+      <c r="E149" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A149,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F149" s="91">
+      <c r="F149" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A149,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12857,19 +12896,19 @@
         <f>IFERROR(VLOOKUP($A150,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C150" s="86">
+      <c r="C150" s="84">
         <f>IFERROR(VLOOKUP($A150,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D150" s="91">
+      <c r="D150" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A150,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E150" s="91">
+      <c r="E150" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A150,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F150" s="91">
+      <c r="F150" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A150,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12894,15 +12933,15 @@
         <f>IFERROR(VLOOKUP($A151,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D151" s="89">
+      <c r="D151" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A151,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E151" s="89">
+      <c r="E151" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A151,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F151" s="90">
+      <c r="F151" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A151,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12954,15 +12993,15 @@
         <f>IFERROR(VLOOKUP($A153,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D153" s="87">
+      <c r="D153" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A153,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E153" s="87">
+      <c r="E153" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A153,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="88">
+      <c r="F153" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A153,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -12983,19 +13022,19 @@
         <f>IFERROR(VLOOKUP($A154,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C154" s="86">
+      <c r="C154" s="84">
         <f>IFERROR(VLOOKUP($A154,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D154" s="91">
+      <c r="D154" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A154,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E154" s="91">
+      <c r="E154" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A154,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F154" s="91">
+      <c r="F154" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A154,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13016,19 +13055,19 @@
         <f>IFERROR(VLOOKUP($A155,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C155" s="86">
+      <c r="C155" s="84">
         <f>IFERROR(VLOOKUP($A155,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="91">
+      <c r="D155" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A155,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E155" s="91">
+      <c r="E155" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A155,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F155" s="91">
+      <c r="F155" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A155,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13053,15 +13092,15 @@
         <f>IFERROR(VLOOKUP($A156,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D156" s="89">
+      <c r="D156" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A156,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E156" s="89">
+      <c r="E156" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A156,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F156" s="90">
+      <c r="F156" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A156,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13113,15 +13152,15 @@
         <f>IFERROR(VLOOKUP($A158,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D158" s="87">
+      <c r="D158" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A158,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E158" s="87">
+      <c r="E158" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A158,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F158" s="88">
+      <c r="F158" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A158,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13142,19 +13181,19 @@
         <f>IFERROR(VLOOKUP($A159,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C159" s="86">
+      <c r="C159" s="84">
         <f>IFERROR(VLOOKUP($A159,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D159" s="91">
+      <c r="D159" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A159,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E159" s="91">
+      <c r="E159" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A159,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F159" s="91">
+      <c r="F159" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A159,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13175,19 +13214,19 @@
         <f>IFERROR(VLOOKUP($A160,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C160" s="86">
+      <c r="C160" s="84">
         <f>IFERROR(VLOOKUP($A160,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D160" s="91">
+      <c r="D160" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A160,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E160" s="91">
+      <c r="E160" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A160,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F160" s="91">
+      <c r="F160" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A160,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13208,19 +13247,19 @@
         <f>IFERROR(VLOOKUP($A161,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C161" s="86">
+      <c r="C161" s="84">
         <f>IFERROR(VLOOKUP($A161,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D161" s="91">
+      <c r="D161" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A161,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E161" s="91">
+      <c r="E161" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A161,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F161" s="91">
+      <c r="F161" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A161,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13241,19 +13280,19 @@
         <f>IFERROR(VLOOKUP($A162,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C162" s="86">
+      <c r="C162" s="84">
         <f>IFERROR(VLOOKUP($A162,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D162" s="91">
+      <c r="D162" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A162,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E162" s="91">
+      <c r="E162" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A162,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F162" s="91">
+      <c r="F162" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A162,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13274,19 +13313,19 @@
         <f>IFERROR(VLOOKUP($A163,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C163" s="86">
+      <c r="C163" s="84">
         <f>IFERROR(VLOOKUP($A163,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D163" s="91">
+      <c r="D163" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A163,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E163" s="91">
+      <c r="E163" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A163,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F163" s="91">
+      <c r="F163" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A163,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13307,19 +13346,19 @@
         <f>IFERROR(VLOOKUP($A164,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C164" s="86">
+      <c r="C164" s="84">
         <f>IFERROR(VLOOKUP($A164,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D164" s="91">
+      <c r="D164" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A164,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E164" s="91">
+      <c r="E164" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A164,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F164" s="91">
+      <c r="F164" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A164,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13340,19 +13379,19 @@
         <f>IFERROR(VLOOKUP($A165,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C165" s="86">
+      <c r="C165" s="84">
         <f>IFERROR(VLOOKUP($A165,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D165" s="91">
+      <c r="D165" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A165,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E165" s="91">
+      <c r="E165" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A165,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F165" s="91">
+      <c r="F165" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A165,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13377,15 +13416,15 @@
         <f>IFERROR(VLOOKUP($A166,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="89">
+      <c r="D166" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A166,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E166" s="89">
+      <c r="E166" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A166,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F166" s="90">
+      <c r="F166" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A166,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13437,15 +13476,15 @@
         <f>IFERROR(VLOOKUP($A168,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D168" s="87">
+      <c r="D168" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A168,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E168" s="87">
+      <c r="E168" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A168,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F168" s="88">
+      <c r="F168" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A168,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13466,19 +13505,19 @@
         <f>IFERROR(VLOOKUP($A169,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C169" s="86">
+      <c r="C169" s="84">
         <f>IFERROR(VLOOKUP($A169,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D169" s="91">
+      <c r="D169" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A169,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E169" s="91">
+      <c r="E169" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A169,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F169" s="91">
+      <c r="F169" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A169,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13499,19 +13538,19 @@
         <f>IFERROR(VLOOKUP($A170,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C170" s="86">
+      <c r="C170" s="84">
         <f>IFERROR(VLOOKUP($A170,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D170" s="91">
+      <c r="D170" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A170,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E170" s="91">
+      <c r="E170" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A170,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F170" s="91">
+      <c r="F170" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A170,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13532,19 +13571,19 @@
         <f>IFERROR(VLOOKUP($A171,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C171" s="86">
+      <c r="C171" s="84">
         <f>IFERROR(VLOOKUP($A171,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D171" s="91">
+      <c r="D171" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A171,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E171" s="91">
+      <c r="E171" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A171,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F171" s="91">
+      <c r="F171" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A171,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13565,19 +13604,19 @@
         <f>IFERROR(VLOOKUP($A172,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C172" s="86">
+      <c r="C172" s="84">
         <f>IFERROR(VLOOKUP($A172,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D172" s="91">
+      <c r="D172" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A172,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E172" s="91">
+      <c r="E172" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A172,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F172" s="91">
+      <c r="F172" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A172,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13602,15 +13641,15 @@
         <f>IFERROR(VLOOKUP($A173,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D173" s="89">
+      <c r="D173" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A173,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E173" s="89">
+      <c r="E173" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A173,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="90">
+      <c r="F173" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A173,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13662,15 +13701,15 @@
         <f>IFERROR(VLOOKUP($A175,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D175" s="87">
+      <c r="D175" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A175,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E175" s="87">
+      <c r="E175" s="85">
         <f>IFERROR(VLOOKUP(VLOOKUP($A175,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F175" s="88">
+      <c r="F175" s="86">
         <f>IFERROR(VLOOKUP(VLOOKUP($A175,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13691,19 +13730,19 @@
         <f>IFERROR(VLOOKUP($A176,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C176" s="86">
+      <c r="C176" s="84">
         <f>IFERROR(VLOOKUP($A176,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D176" s="91">
+      <c r="D176" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A176,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E176" s="91">
+      <c r="E176" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A176,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F176" s="91">
+      <c r="F176" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A176,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13724,19 +13763,19 @@
         <f>IFERROR(VLOOKUP($A177,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C177" s="86">
+      <c r="C177" s="84">
         <f>IFERROR(VLOOKUP($A177,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="91">
+      <c r="D177" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A177,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E177" s="91">
+      <c r="E177" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A177,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F177" s="91">
+      <c r="F177" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A177,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13757,19 +13796,19 @@
         <f>IFERROR(VLOOKUP($A178,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C178" s="86">
+      <c r="C178" s="84">
         <f>IFERROR(VLOOKUP($A178,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D178" s="91">
+      <c r="D178" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A178,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E178" s="91">
+      <c r="E178" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A178,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F178" s="91">
+      <c r="F178" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A178,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13790,19 +13829,19 @@
         <f>IFERROR(VLOOKUP($A179,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C179" s="86">
+      <c r="C179" s="84">
         <f>IFERROR(VLOOKUP($A179,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D179" s="91">
+      <c r="D179" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A179,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E179" s="91">
+      <c r="E179" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A179,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="91">
+      <c r="F179" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A179,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13823,19 +13862,19 @@
         <f>IFERROR(VLOOKUP($A180,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C180" s="86">
+      <c r="C180" s="84">
         <f>IFERROR(VLOOKUP($A180,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D180" s="91">
+      <c r="D180" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A180,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E180" s="91">
+      <c r="E180" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A180,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F180" s="91">
+      <c r="F180" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A180,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13856,19 +13895,19 @@
         <f>IFERROR(VLOOKUP($A181,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C181" s="86">
+      <c r="C181" s="84">
         <f>IFERROR(VLOOKUP($A181,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D181" s="91">
+      <c r="D181" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A181,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E181" s="91">
+      <c r="E181" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A181,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F181" s="91">
+      <c r="F181" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A181,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13889,19 +13928,19 @@
         <f>IFERROR(VLOOKUP($A182,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C182" s="86">
+      <c r="C182" s="84">
         <f>IFERROR(VLOOKUP($A182,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D182" s="91">
+      <c r="D182" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A182,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E182" s="91">
+      <c r="E182" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A182,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F182" s="91">
+      <c r="F182" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A182,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13922,19 +13961,19 @@
         <f>IFERROR(VLOOKUP($A183,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C183" s="86">
+      <c r="C183" s="84">
         <f>IFERROR(VLOOKUP($A183,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D183" s="91">
+      <c r="D183" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A183,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E183" s="91">
+      <c r="E183" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A183,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="91">
+      <c r="F183" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A183,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13955,19 +13994,19 @@
         <f>IFERROR(VLOOKUP($A184,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C184" s="86">
+      <c r="C184" s="84">
         <f>IFERROR(VLOOKUP($A184,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D184" s="91">
+      <c r="D184" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A184,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E184" s="91">
+      <c r="E184" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A184,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F184" s="91">
+      <c r="F184" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A184,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -13988,19 +14027,19 @@
         <f>IFERROR(VLOOKUP($A185,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C185" s="86">
+      <c r="C185" s="84">
         <f>IFERROR(VLOOKUP($A185,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D185" s="91">
+      <c r="D185" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A185,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E185" s="91">
+      <c r="E185" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A185,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F185" s="91">
+      <c r="F185" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A185,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14021,19 +14060,19 @@
         <f>IFERROR(VLOOKUP($A186,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C186" s="86">
+      <c r="C186" s="84">
         <f>IFERROR(VLOOKUP($A186,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D186" s="91">
+      <c r="D186" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A186,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E186" s="91">
+      <c r="E186" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A186,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F186" s="91">
+      <c r="F186" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A186,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14054,19 +14093,19 @@
         <f>IFERROR(VLOOKUP($A187,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C187" s="86">
+      <c r="C187" s="84">
         <f>IFERROR(VLOOKUP($A187,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D187" s="91">
+      <c r="D187" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A187,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E187" s="91">
+      <c r="E187" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A187,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F187" s="91">
+      <c r="F187" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A187,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14087,19 +14126,19 @@
         <f>IFERROR(VLOOKUP($A188,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C188" s="86">
+      <c r="C188" s="84">
         <f>IFERROR(VLOOKUP($A188,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="91">
+      <c r="D188" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A188,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E188" s="91">
+      <c r="E188" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A188,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F188" s="91">
+      <c r="F188" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A188,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14120,19 +14159,19 @@
         <f>IFERROR(VLOOKUP($A189,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C189" s="86">
+      <c r="C189" s="84">
         <f>IFERROR(VLOOKUP($A189,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D189" s="91">
+      <c r="D189" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A189,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E189" s="91">
+      <c r="E189" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A189,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F189" s="91">
+      <c r="F189" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A189,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14153,19 +14192,19 @@
         <f>IFERROR(VLOOKUP($A190,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C190" s="86">
+      <c r="C190" s="84">
         <f>IFERROR(VLOOKUP($A190,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D190" s="91">
+      <c r="D190" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A190,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E190" s="91">
+      <c r="E190" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A190,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F190" s="91">
+      <c r="F190" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A190,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14186,19 +14225,19 @@
         <f>IFERROR(VLOOKUP($A191,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C191" s="86">
+      <c r="C191" s="84">
         <f>IFERROR(VLOOKUP($A191,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D191" s="91">
+      <c r="D191" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A191,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E191" s="91">
+      <c r="E191" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A191,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="91">
+      <c r="F191" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A191,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14219,19 +14258,19 @@
         <f>IFERROR(VLOOKUP($A192,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C192" s="86">
+      <c r="C192" s="84">
         <f>IFERROR(VLOOKUP($A192,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D192" s="91">
+      <c r="D192" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A192,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E192" s="91">
+      <c r="E192" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A192,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F192" s="91">
+      <c r="F192" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A192,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14252,19 +14291,19 @@
         <f>IFERROR(VLOOKUP($A193,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C193" s="86">
+      <c r="C193" s="84">
         <f>IFERROR(VLOOKUP($A193,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D193" s="91">
+      <c r="D193" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A193,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E193" s="91">
+      <c r="E193" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A193,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F193" s="91">
+      <c r="F193" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A193,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14285,19 +14324,19 @@
         <f>IFERROR(VLOOKUP($A194,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C194" s="86">
+      <c r="C194" s="84">
         <f>IFERROR(VLOOKUP($A194,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D194" s="91">
+      <c r="D194" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A194,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E194" s="91">
+      <c r="E194" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A194,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F194" s="91">
+      <c r="F194" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A194,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14318,19 +14357,19 @@
         <f>IFERROR(VLOOKUP($A195,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C195" s="86">
+      <c r="C195" s="84">
         <f>IFERROR(VLOOKUP($A195,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D195" s="91">
+      <c r="D195" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A195,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E195" s="91">
+      <c r="E195" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A195,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F195" s="91">
+      <c r="F195" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A195,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14351,19 +14390,19 @@
         <f>IFERROR(VLOOKUP($A196,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C196" s="86">
+      <c r="C196" s="84">
         <f>IFERROR(VLOOKUP($A196,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D196" s="91">
+      <c r="D196" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A196,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E196" s="91">
+      <c r="E196" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A196,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F196" s="91">
+      <c r="F196" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A196,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14384,19 +14423,19 @@
         <f>IFERROR(VLOOKUP($A197,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C197" s="86">
+      <c r="C197" s="84">
         <f>IFERROR(VLOOKUP($A197,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D197" s="91">
+      <c r="D197" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A197,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E197" s="91">
+      <c r="E197" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A197,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F197" s="91">
+      <c r="F197" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A197,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14417,19 +14456,19 @@
         <f>IFERROR(VLOOKUP($A198,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C198" s="86">
+      <c r="C198" s="84">
         <f>IFERROR(VLOOKUP($A198,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D198" s="91">
+      <c r="D198" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A198,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E198" s="91">
+      <c r="E198" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A198,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F198" s="91">
+      <c r="F198" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A198,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14450,19 +14489,19 @@
         <f>IFERROR(VLOOKUP($A199,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C199" s="86">
+      <c r="C199" s="84">
         <f>IFERROR(VLOOKUP($A199,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="91">
+      <c r="D199" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A199,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E199" s="91">
+      <c r="E199" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A199,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F199" s="91">
+      <c r="F199" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A199,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14483,19 +14522,19 @@
         <f>IFERROR(VLOOKUP($A200,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C200" s="86">
+      <c r="C200" s="84">
         <f>IFERROR(VLOOKUP($A200,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D200" s="91">
+      <c r="D200" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A200,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E200" s="91">
+      <c r="E200" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A200,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F200" s="91">
+      <c r="F200" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A200,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14516,19 +14555,19 @@
         <f>IFERROR(VLOOKUP($A201,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C201" s="86">
+      <c r="C201" s="84">
         <f>IFERROR(VLOOKUP($A201,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D201" s="91">
+      <c r="D201" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A201,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E201" s="91">
+      <c r="E201" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A201,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F201" s="91">
+      <c r="F201" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A201,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14549,19 +14588,19 @@
         <f>IFERROR(VLOOKUP($A202,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C202" s="86">
+      <c r="C202" s="84">
         <f>IFERROR(VLOOKUP($A202,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D202" s="91">
+      <c r="D202" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A202,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E202" s="91">
+      <c r="E202" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A202,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F202" s="91">
+      <c r="F202" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A202,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14582,19 +14621,19 @@
         <f>IFERROR(VLOOKUP($A203,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C203" s="86">
+      <c r="C203" s="84">
         <f>IFERROR(VLOOKUP($A203,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D203" s="91">
+      <c r="D203" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A203,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E203" s="91">
+      <c r="E203" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A203,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F203" s="91">
+      <c r="F203" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A203,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14615,19 +14654,19 @@
         <f>IFERROR(VLOOKUP($A204,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C204" s="86">
+      <c r="C204" s="84">
         <f>IFERROR(VLOOKUP($A204,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D204" s="91">
+      <c r="D204" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A204,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E204" s="91">
+      <c r="E204" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A204,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F204" s="91">
+      <c r="F204" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A204,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14648,19 +14687,19 @@
         <f>IFERROR(VLOOKUP($A205,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C205" s="86">
+      <c r="C205" s="84">
         <f>IFERROR(VLOOKUP($A205,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D205" s="91">
+      <c r="D205" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A205,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E205" s="91">
+      <c r="E205" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A205,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F205" s="91">
+      <c r="F205" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A205,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14681,19 +14720,19 @@
         <f>IFERROR(VLOOKUP($A206,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C206" s="86">
+      <c r="C206" s="84">
         <f>IFERROR(VLOOKUP($A206,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D206" s="91">
+      <c r="D206" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A206,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E206" s="91">
+      <c r="E206" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A206,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F206" s="91">
+      <c r="F206" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A206,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14714,19 +14753,19 @@
         <f>IFERROR(VLOOKUP($A207,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C207" s="86">
+      <c r="C207" s="84">
         <f>IFERROR(VLOOKUP($A207,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D207" s="91">
+      <c r="D207" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A207,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E207" s="91">
+      <c r="E207" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A207,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F207" s="91">
+      <c r="F207" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A207,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14747,19 +14786,19 @@
         <f>IFERROR(VLOOKUP($A208,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C208" s="86">
+      <c r="C208" s="84">
         <f>IFERROR(VLOOKUP($A208,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D208" s="91">
+      <c r="D208" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A208,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E208" s="91">
+      <c r="E208" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A208,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F208" s="91">
+      <c r="F208" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A208,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14780,19 +14819,19 @@
         <f>IFERROR(VLOOKUP($A209,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C209" s="86">
+      <c r="C209" s="84">
         <f>IFERROR(VLOOKUP($A209,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D209" s="91">
+      <c r="D209" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A209,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E209" s="91">
+      <c r="E209" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A209,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F209" s="91">
+      <c r="F209" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A209,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14813,19 +14852,19 @@
         <f>IFERROR(VLOOKUP($A210,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C210" s="86">
+      <c r="C210" s="84">
         <f>IFERROR(VLOOKUP($A210,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="91">
+      <c r="D210" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A210,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E210" s="91">
+      <c r="E210" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A210,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F210" s="91">
+      <c r="F210" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A210,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14846,19 +14885,19 @@
         <f>IFERROR(VLOOKUP($A211,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C211" s="86">
+      <c r="C211" s="84">
         <f>IFERROR(VLOOKUP($A211,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D211" s="91">
+      <c r="D211" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A211,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E211" s="91">
+      <c r="E211" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A211,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F211" s="91">
+      <c r="F211" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A211,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14879,19 +14918,19 @@
         <f>IFERROR(VLOOKUP($A212,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C212" s="86">
+      <c r="C212" s="84">
         <f>IFERROR(VLOOKUP($A212,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D212" s="91">
+      <c r="D212" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A212,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E212" s="91">
+      <c r="E212" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A212,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F212" s="91">
+      <c r="F212" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A212,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14912,19 +14951,19 @@
         <f>IFERROR(VLOOKUP($A213,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C213" s="86">
+      <c r="C213" s="84">
         <f>IFERROR(VLOOKUP($A213,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D213" s="91">
+      <c r="D213" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A213,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E213" s="91">
+      <c r="E213" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A213,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F213" s="91">
+      <c r="F213" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A213,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14945,19 +14984,19 @@
         <f>IFERROR(VLOOKUP($A214,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C214" s="86">
+      <c r="C214" s="84">
         <f>IFERROR(VLOOKUP($A214,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D214" s="91">
+      <c r="D214" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A214,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E214" s="91">
+      <c r="E214" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A214,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F214" s="91">
+      <c r="F214" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A214,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -14978,19 +15017,19 @@
         <f>IFERROR(VLOOKUP($A215,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C215" s="86">
+      <c r="C215" s="84">
         <f>IFERROR(VLOOKUP($A215,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D215" s="91">
+      <c r="D215" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A215,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E215" s="91">
+      <c r="E215" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A215,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F215" s="91">
+      <c r="F215" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A215,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15011,19 +15050,19 @@
         <f>IFERROR(VLOOKUP($A216,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C216" s="86">
+      <c r="C216" s="84">
         <f>IFERROR(VLOOKUP($A216,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D216" s="91">
+      <c r="D216" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A216,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E216" s="91">
+      <c r="E216" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A216,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F216" s="91">
+      <c r="F216" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A216,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15044,19 +15083,19 @@
         <f>IFERROR(VLOOKUP($A217,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C217" s="86">
+      <c r="C217" s="84">
         <f>IFERROR(VLOOKUP($A217,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D217" s="91">
+      <c r="D217" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A217,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E217" s="91">
+      <c r="E217" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A217,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F217" s="91">
+      <c r="F217" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A217,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15077,19 +15116,19 @@
         <f>IFERROR(VLOOKUP($A218,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C218" s="86">
+      <c r="C218" s="84">
         <f>IFERROR(VLOOKUP($A218,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D218" s="91">
+      <c r="D218" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A218,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E218" s="91">
+      <c r="E218" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A218,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F218" s="91">
+      <c r="F218" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A218,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15110,19 +15149,19 @@
         <f>IFERROR(VLOOKUP($A219,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C219" s="86">
+      <c r="C219" s="84">
         <f>IFERROR(VLOOKUP($A219,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D219" s="91">
+      <c r="D219" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A219,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E219" s="91">
+      <c r="E219" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A219,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F219" s="91">
+      <c r="F219" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A219,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15143,19 +15182,19 @@
         <f>IFERROR(VLOOKUP($A220,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C220" s="86">
+      <c r="C220" s="84">
         <f>IFERROR(VLOOKUP($A220,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D220" s="91">
+      <c r="D220" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A220,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E220" s="91">
+      <c r="E220" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A220,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F220" s="91">
+      <c r="F220" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A220,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15176,19 +15215,19 @@
         <f>IFERROR(VLOOKUP($A221,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C221" s="86">
+      <c r="C221" s="84">
         <f>IFERROR(VLOOKUP($A221,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="91">
+      <c r="D221" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A221,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E221" s="91">
+      <c r="E221" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A221,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F221" s="91">
+      <c r="F221" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A221,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15209,19 +15248,19 @@
         <f>IFERROR(VLOOKUP($A222,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C222" s="86">
+      <c r="C222" s="84">
         <f>IFERROR(VLOOKUP($A222,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D222" s="91">
+      <c r="D222" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A222,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E222" s="91">
+      <c r="E222" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A222,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F222" s="91">
+      <c r="F222" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A222,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15242,19 +15281,19 @@
         <f>IFERROR(VLOOKUP($A223,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C223" s="86">
+      <c r="C223" s="84">
         <f>IFERROR(VLOOKUP($A223,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D223" s="91">
+      <c r="D223" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A223,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E223" s="91">
+      <c r="E223" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A223,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F223" s="91">
+      <c r="F223" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A223,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15275,19 +15314,19 @@
         <f>IFERROR(VLOOKUP($A224,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C224" s="86">
+      <c r="C224" s="84">
         <f>IFERROR(VLOOKUP($A224,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D224" s="91">
+      <c r="D224" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A224,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E224" s="91">
+      <c r="E224" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A224,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F224" s="91">
+      <c r="F224" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A224,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15308,19 +15347,19 @@
         <f>IFERROR(VLOOKUP($A225,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C225" s="86">
+      <c r="C225" s="84">
         <f>IFERROR(VLOOKUP($A225,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D225" s="91">
+      <c r="D225" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A225,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E225" s="91">
+      <c r="E225" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A225,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F225" s="91">
+      <c r="F225" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A225,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15341,19 +15380,19 @@
         <f>IFERROR(VLOOKUP($A226,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C226" s="86">
+      <c r="C226" s="84">
         <f>IFERROR(VLOOKUP($A226,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D226" s="91">
+      <c r="D226" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A226,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E226" s="91">
+      <c r="E226" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A226,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F226" s="91">
+      <c r="F226" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A226,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15374,19 +15413,19 @@
         <f>IFERROR(VLOOKUP($A227,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C227" s="86">
+      <c r="C227" s="84">
         <f>IFERROR(VLOOKUP($A227,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D227" s="91">
+      <c r="D227" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A227,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E227" s="91">
+      <c r="E227" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A227,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F227" s="91">
+      <c r="F227" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A227,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15407,19 +15446,19 @@
         <f>IFERROR(VLOOKUP($A228,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C228" s="86">
+      <c r="C228" s="84">
         <f>IFERROR(VLOOKUP($A228,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D228" s="91">
+      <c r="D228" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A228,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E228" s="91">
+      <c r="E228" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A228,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F228" s="91">
+      <c r="F228" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A228,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15440,19 +15479,19 @@
         <f>IFERROR(VLOOKUP($A229,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C229" s="86">
+      <c r="C229" s="84">
         <f>IFERROR(VLOOKUP($A229,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D229" s="91">
+      <c r="D229" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A229,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E229" s="91">
+      <c r="E229" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A229,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F229" s="91">
+      <c r="F229" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A229,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15473,19 +15512,19 @@
         <f>IFERROR(VLOOKUP($A230,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C230" s="86">
+      <c r="C230" s="84">
         <f>IFERROR(VLOOKUP($A230,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D230" s="91">
+      <c r="D230" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A230,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E230" s="91">
+      <c r="E230" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A230,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F230" s="91">
+      <c r="F230" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A230,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15506,19 +15545,19 @@
         <f>IFERROR(VLOOKUP($A231,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C231" s="86">
+      <c r="C231" s="84">
         <f>IFERROR(VLOOKUP($A231,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D231" s="91">
+      <c r="D231" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A231,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E231" s="91">
+      <c r="E231" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A231,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F231" s="91">
+      <c r="F231" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A231,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15539,19 +15578,19 @@
         <f>IFERROR(VLOOKUP($A232,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C232" s="86">
+      <c r="C232" s="84">
         <f>IFERROR(VLOOKUP($A232,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D232" s="91">
+      <c r="D232" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A232,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E232" s="91">
+      <c r="E232" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A232,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F232" s="91">
+      <c r="F232" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A232,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15572,19 +15611,19 @@
         <f>IFERROR(VLOOKUP($A233,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C233" s="86">
+      <c r="C233" s="84">
         <f>IFERROR(VLOOKUP($A233,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D233" s="91">
+      <c r="D233" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A233,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E233" s="91">
+      <c r="E233" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A233,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F233" s="91">
+      <c r="F233" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A233,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15605,19 +15644,19 @@
         <f>IFERROR(VLOOKUP($A234,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C234" s="86">
+      <c r="C234" s="84">
         <f>IFERROR(VLOOKUP($A234,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D234" s="91">
+      <c r="D234" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A234,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E234" s="91">
+      <c r="E234" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A234,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F234" s="91">
+      <c r="F234" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A234,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15638,19 +15677,19 @@
         <f>IFERROR(VLOOKUP($A235,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C235" s="86">
+      <c r="C235" s="84">
         <f>IFERROR(VLOOKUP($A235,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D235" s="91">
+      <c r="D235" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A235,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E235" s="91">
+      <c r="E235" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A235,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F235" s="91">
+      <c r="F235" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A235,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15671,19 +15710,19 @@
         <f>IFERROR(VLOOKUP($A236,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C236" s="86">
+      <c r="C236" s="84">
         <f>IFERROR(VLOOKUP($A236,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D236" s="91">
+      <c r="D236" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A236,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E236" s="91">
+      <c r="E236" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A236,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F236" s="91">
+      <c r="F236" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A236,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15704,19 +15743,19 @@
         <f>IFERROR(VLOOKUP($A237,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C237" s="86">
+      <c r="C237" s="84">
         <f>IFERROR(VLOOKUP($A237,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D237" s="91">
+      <c r="D237" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A237,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E237" s="91">
+      <c r="E237" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A237,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F237" s="91">
+      <c r="F237" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A237,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15737,19 +15776,19 @@
         <f>IFERROR(VLOOKUP($A238,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C238" s="86">
+      <c r="C238" s="84">
         <f>IFERROR(VLOOKUP($A238,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D238" s="91">
+      <c r="D238" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A238,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E238" s="91">
+      <c r="E238" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A238,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F238" s="91">
+      <c r="F238" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A238,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15770,19 +15809,19 @@
         <f>IFERROR(VLOOKUP($A239,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C239" s="86">
+      <c r="C239" s="84">
         <f>IFERROR(VLOOKUP($A239,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D239" s="91">
+      <c r="D239" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A239,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E239" s="91">
+      <c r="E239" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A239,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F239" s="91">
+      <c r="F239" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A239,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15803,19 +15842,19 @@
         <f>IFERROR(VLOOKUP($A240,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C240" s="86">
+      <c r="C240" s="84">
         <f>IFERROR(VLOOKUP($A240,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D240" s="91">
+      <c r="D240" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A240,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E240" s="91">
+      <c r="E240" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A240,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F240" s="91">
+      <c r="F240" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A240,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15836,19 +15875,19 @@
         <f>IFERROR(VLOOKUP($A241,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C241" s="86">
+      <c r="C241" s="84">
         <f>IFERROR(VLOOKUP($A241,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D241" s="91">
+      <c r="D241" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A241,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E241" s="91">
+      <c r="E241" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A241,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F241" s="91">
+      <c r="F241" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A241,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15869,19 +15908,19 @@
         <f>IFERROR(VLOOKUP($A242,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C242" s="86">
+      <c r="C242" s="84">
         <f>IFERROR(VLOOKUP($A242,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D242" s="91">
+      <c r="D242" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A242,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E242" s="91">
+      <c r="E242" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A242,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F242" s="91">
+      <c r="F242" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A242,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15902,19 +15941,19 @@
         <f>IFERROR(VLOOKUP($A243,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C243" s="86">
+      <c r="C243" s="84">
         <f>IFERROR(VLOOKUP($A243,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D243" s="91">
+      <c r="D243" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A243,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E243" s="91">
+      <c r="E243" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A243,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F243" s="91">
+      <c r="F243" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A243,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15935,19 +15974,19 @@
         <f>IFERROR(VLOOKUP($A244,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C244" s="86">
+      <c r="C244" s="84">
         <f>IFERROR(VLOOKUP($A244,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D244" s="91">
+      <c r="D244" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A244,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E244" s="91">
+      <c r="E244" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A244,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F244" s="91">
+      <c r="F244" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A244,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -15968,19 +16007,19 @@
         <f>IFERROR(VLOOKUP($A245,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C245" s="86">
+      <c r="C245" s="84">
         <f>IFERROR(VLOOKUP($A245,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D245" s="91">
+      <c r="D245" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A245,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E245" s="91">
+      <c r="E245" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A245,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F245" s="91">
+      <c r="F245" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A245,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16001,19 +16040,19 @@
         <f>IFERROR(VLOOKUP($A246,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C246" s="86">
+      <c r="C246" s="84">
         <f>IFERROR(VLOOKUP($A246,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D246" s="91">
+      <c r="D246" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A246,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E246" s="91">
+      <c r="E246" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A246,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F246" s="91">
+      <c r="F246" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A246,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16034,19 +16073,19 @@
         <f>IFERROR(VLOOKUP($A247,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C247" s="86">
+      <c r="C247" s="84">
         <f>IFERROR(VLOOKUP($A247,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D247" s="91">
+      <c r="D247" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A247,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E247" s="91">
+      <c r="E247" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A247,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F247" s="91">
+      <c r="F247" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A247,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16067,19 +16106,19 @@
         <f>IFERROR(VLOOKUP($A248,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C248" s="86">
+      <c r="C248" s="84">
         <f>IFERROR(VLOOKUP($A248,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D248" s="91">
+      <c r="D248" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A248,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E248" s="91">
+      <c r="E248" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A248,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F248" s="91">
+      <c r="F248" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A248,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16100,19 +16139,19 @@
         <f>IFERROR(VLOOKUP($A249,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C249" s="86">
+      <c r="C249" s="84">
         <f>IFERROR(VLOOKUP($A249,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D249" s="91">
+      <c r="D249" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A249,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E249" s="91">
+      <c r="E249" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A249,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F249" s="91">
+      <c r="F249" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A249,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16133,19 +16172,19 @@
         <f>IFERROR(VLOOKUP($A250,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C250" s="86">
+      <c r="C250" s="84">
         <f>IFERROR(VLOOKUP($A250,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D250" s="91">
+      <c r="D250" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A250,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E250" s="91">
+      <c r="E250" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A250,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F250" s="91">
+      <c r="F250" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A250,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16166,19 +16205,19 @@
         <f>IFERROR(VLOOKUP($A251,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C251" s="86">
+      <c r="C251" s="84">
         <f>IFERROR(VLOOKUP($A251,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D251" s="91">
+      <c r="D251" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A251,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E251" s="91">
+      <c r="E251" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A251,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F251" s="91">
+      <c r="F251" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A251,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16199,19 +16238,19 @@
         <f>IFERROR(VLOOKUP($A252,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C252" s="86">
+      <c r="C252" s="84">
         <f>IFERROR(VLOOKUP($A252,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D252" s="91">
+      <c r="D252" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A252,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E252" s="91">
+      <c r="E252" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A252,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F252" s="91">
+      <c r="F252" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A252,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16232,19 +16271,19 @@
         <f>IFERROR(VLOOKUP($A253,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C253" s="86">
+      <c r="C253" s="84">
         <f>IFERROR(VLOOKUP($A253,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D253" s="91">
+      <c r="D253" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A253,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E253" s="91">
+      <c r="E253" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A253,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F253" s="91">
+      <c r="F253" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A253,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16265,19 +16304,19 @@
         <f>IFERROR(VLOOKUP($A254,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C254" s="86">
+      <c r="C254" s="84">
         <f>IFERROR(VLOOKUP($A254,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D254" s="91">
+      <c r="D254" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A254,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E254" s="91">
+      <c r="E254" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A254,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F254" s="91">
+      <c r="F254" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A254,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16298,19 +16337,19 @@
         <f>IFERROR(VLOOKUP($A255,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C255" s="86">
+      <c r="C255" s="84">
         <f>IFERROR(VLOOKUP($A255,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D255" s="91">
+      <c r="D255" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A255,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E255" s="91">
+      <c r="E255" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A255,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F255" s="91">
+      <c r="F255" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A255,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16331,19 +16370,19 @@
         <f>IFERROR(VLOOKUP($A256,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C256" s="86">
+      <c r="C256" s="84">
         <f>IFERROR(VLOOKUP($A256,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D256" s="91">
+      <c r="D256" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A256,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E256" s="91">
+      <c r="E256" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A256,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F256" s="91">
+      <c r="F256" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A256,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16364,19 +16403,19 @@
         <f>IFERROR(VLOOKUP($A257,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C257" s="86">
+      <c r="C257" s="84">
         <f>IFERROR(VLOOKUP($A257,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D257" s="91">
+      <c r="D257" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A257,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E257" s="91">
+      <c r="E257" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A257,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F257" s="91">
+      <c r="F257" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A257,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16397,19 +16436,19 @@
         <f>IFERROR(VLOOKUP($A258,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C258" s="86">
+      <c r="C258" s="84">
         <f>IFERROR(VLOOKUP($A258,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D258" s="91">
+      <c r="D258" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A258,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E258" s="91">
+      <c r="E258" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A258,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F258" s="91">
+      <c r="F258" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A258,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16430,19 +16469,19 @@
         <f>IFERROR(VLOOKUP($A259,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C259" s="86">
+      <c r="C259" s="84">
         <f>IFERROR(VLOOKUP($A259,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D259" s="91">
+      <c r="D259" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A259,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E259" s="91">
+      <c r="E259" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A259,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F259" s="91">
+      <c r="F259" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A259,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16463,19 +16502,19 @@
         <f>IFERROR(VLOOKUP($A260,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C260" s="86">
+      <c r="C260" s="84">
         <f>IFERROR(VLOOKUP($A260,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D260" s="91">
+      <c r="D260" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A260,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E260" s="91">
+      <c r="E260" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A260,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F260" s="91">
+      <c r="F260" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A260,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16496,19 +16535,19 @@
         <f>IFERROR(VLOOKUP($A261,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C261" s="86">
+      <c r="C261" s="84">
         <f>IFERROR(VLOOKUP($A261,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D261" s="91">
+      <c r="D261" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A261,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E261" s="91">
+      <c r="E261" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A261,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F261" s="91">
+      <c r="F261" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A261,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16529,19 +16568,19 @@
         <f>IFERROR(VLOOKUP($A262,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C262" s="86">
+      <c r="C262" s="84">
         <f>IFERROR(VLOOKUP($A262,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D262" s="91">
+      <c r="D262" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A262,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E262" s="91">
+      <c r="E262" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A262,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F262" s="91">
+      <c r="F262" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A262,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16562,19 +16601,19 @@
         <f>IFERROR(VLOOKUP($A263,svod!$B:$D,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C263" s="86">
+      <c r="C263" s="84">
         <f>IFERROR(VLOOKUP($A263,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D263" s="91">
+      <c r="D263" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A263,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E263" s="91">
+      <c r="E263" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A263,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F263" s="91">
+      <c r="F263" s="89">
         <f>IFERROR(VLOOKUP(VLOOKUP($A263,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16599,15 +16638,15 @@
         <f>IFERROR(VLOOKUP($A264,svod!$B:$D,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="D264" s="89">
+      <c r="D264" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A264,nsi!$A:$B,2,0),regiz!$B:$E,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E264" s="89">
+      <c r="E264" s="87">
         <f>IFERROR(VLOOKUP(VLOOKUP($A264,nsi!$A:$B,2,0),regiz!$B:$E,3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F264" s="90">
+      <c r="F264" s="88">
         <f>IFERROR(VLOOKUP(VLOOKUP($A264,nsi!$A:$B,2,0),regiz!$B:$E,4,0),0)</f>
         <v>0</v>
       </c>
@@ -16846,6 +16885,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="7" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" thickBot="1">
+      <c r="A1" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B250"/>
   <sheetViews>
